--- a/data/trans_orig/P6701-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P6701-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{DE265F9A-C6D4-4F13-A31B-969E31EAC109}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{76F343AD-5097-4A58-974E-CD8352CE6F21}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{3BDBAF31-1DD5-4D59-AC90-2F91646F6BA3}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{055486BE-BB51-45FA-9B9E-276072FFB9C0}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1158" uniqueCount="749">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1158" uniqueCount="739">
   <si>
     <t>Población según si tienen que trabajar muy rápido en 2012 (Tasa respuesta: 33,96%)</t>
   </si>
@@ -76,10 +76,10 @@
     <t>8,47%</t>
   </si>
   <si>
-    <t>1,75%</t>
-  </si>
-  <si>
-    <t>21,55%</t>
+    <t>3,19%</t>
+  </si>
+  <si>
+    <t>19,04%</t>
   </si>
   <si>
     <t>10,09%</t>
@@ -88,16 +88,16 @@
     <t>0,0%</t>
   </si>
   <si>
-    <t>30,42%</t>
+    <t>31,05%</t>
   </si>
   <si>
     <t>9,0%</t>
   </si>
   <si>
-    <t>3,94%</t>
-  </si>
-  <si>
-    <t>18,88%</t>
+    <t>3,7%</t>
+  </si>
+  <si>
+    <t>19,71%</t>
   </si>
   <si>
     <t>Solo alguna vez</t>
@@ -106,2185 +106,2155 @@
     <t>13,04%</t>
   </si>
   <si>
+    <t>6,03%</t>
+  </si>
+  <si>
+    <t>25,05%</t>
+  </si>
+  <si>
+    <t>27,04%</t>
+  </si>
+  <si>
+    <t>9,62%</t>
+  </si>
+  <si>
+    <t>48,23%</t>
+  </si>
+  <si>
+    <t>17,62%</t>
+  </si>
+  <si>
+    <t>9,89%</t>
+  </si>
+  <si>
+    <t>28,23%</t>
+  </si>
+  <si>
+    <t>Algunas veces</t>
+  </si>
+  <si>
+    <t>34,24%</t>
+  </si>
+  <si>
+    <t>21,85%</t>
+  </si>
+  <si>
+    <t>48,78%</t>
+  </si>
+  <si>
+    <t>37,26%</t>
+  </si>
+  <si>
+    <t>19,79%</t>
+  </si>
+  <si>
+    <t>62,41%</t>
+  </si>
+  <si>
+    <t>35,23%</t>
+  </si>
+  <si>
+    <t>25,62%</t>
+  </si>
+  <si>
+    <t>48,99%</t>
+  </si>
+  <si>
+    <t>Muchas veces</t>
+  </si>
+  <si>
+    <t>30,91%</t>
+  </si>
+  <si>
+    <t>20,02%</t>
+  </si>
+  <si>
+    <t>42,81%</t>
+  </si>
+  <si>
+    <t>16,81%</t>
+  </si>
+  <si>
+    <t>4,18%</t>
+  </si>
+  <si>
+    <t>39,23%</t>
+  </si>
+  <si>
+    <t>26,3%</t>
+  </si>
+  <si>
+    <t>17,08%</t>
+  </si>
+  <si>
+    <t>36,39%</t>
+  </si>
+  <si>
+    <t>Siempre</t>
+  </si>
+  <si>
+    <t>13,34%</t>
+  </si>
+  <si>
+    <t>6,44%</t>
+  </si>
+  <si>
+    <t>23,76%</t>
+  </si>
+  <si>
+    <t>8,8%</t>
+  </si>
+  <si>
+    <t>28,14%</t>
+  </si>
+  <si>
+    <t>11,86%</t>
+  </si>
+  <si>
+    <t>5,98%</t>
+  </si>
+  <si>
+    <t>20,67%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>2-10.000 hab</t>
+  </si>
+  <si>
+    <t>8,72%</t>
+  </si>
+  <si>
+    <t>5,3%</t>
+  </si>
+  <si>
+    <t>13,65%</t>
+  </si>
+  <si>
+    <t>10,85%</t>
+  </si>
+  <si>
+    <t>6,4%</t>
+  </si>
+  <si>
+    <t>17,68%</t>
+  </si>
+  <si>
+    <t>9,54%</t>
+  </si>
+  <si>
+    <t>6,81%</t>
+  </si>
+  <si>
+    <t>13,59%</t>
+  </si>
+  <si>
+    <t>12,49%</t>
+  </si>
+  <si>
+    <t>8,32%</t>
+  </si>
+  <si>
+    <t>18,04%</t>
+  </si>
+  <si>
+    <t>12,8%</t>
+  </si>
+  <si>
+    <t>7,87%</t>
+  </si>
+  <si>
+    <t>20,16%</t>
+  </si>
+  <si>
+    <t>12,61%</t>
+  </si>
+  <si>
+    <t>9,22%</t>
+  </si>
+  <si>
+    <t>17,01%</t>
+  </si>
+  <si>
+    <t>38,38%</t>
+  </si>
+  <si>
+    <t>32,32%</t>
+  </si>
+  <si>
+    <t>45,74%</t>
+  </si>
+  <si>
+    <t>37,37%</t>
+  </si>
+  <si>
+    <t>30,01%</t>
+  </si>
+  <si>
+    <t>46,36%</t>
+  </si>
+  <si>
+    <t>37,99%</t>
+  </si>
+  <si>
+    <t>32,94%</t>
+  </si>
+  <si>
+    <t>43,13%</t>
+  </si>
+  <si>
+    <t>26,32%</t>
+  </si>
+  <si>
+    <t>20,28%</t>
+  </si>
+  <si>
+    <t>32,67%</t>
+  </si>
+  <si>
+    <t>24,4%</t>
+  </si>
+  <si>
+    <t>16,85%</t>
+  </si>
+  <si>
+    <t>32,5%</t>
+  </si>
+  <si>
+    <t>25,58%</t>
+  </si>
+  <si>
+    <t>21,22%</t>
+  </si>
+  <si>
+    <t>30,34%</t>
+  </si>
+  <si>
+    <t>14,09%</t>
+  </si>
+  <si>
+    <t>10,06%</t>
+  </si>
+  <si>
+    <t>19,48%</t>
+  </si>
+  <si>
+    <t>14,58%</t>
+  </si>
+  <si>
+    <t>9,4%</t>
+  </si>
+  <si>
+    <t>22,11%</t>
+  </si>
+  <si>
+    <t>14,28%</t>
+  </si>
+  <si>
+    <t>10,77%</t>
+  </si>
+  <si>
+    <t>18,14%</t>
+  </si>
+  <si>
+    <t>10-50.000 hab</t>
+  </si>
+  <si>
+    <t>9,74%</t>
+  </si>
+  <si>
+    <t>7,09%</t>
+  </si>
+  <si>
+    <t>13,44%</t>
+  </si>
+  <si>
+    <t>13,05%</t>
+  </si>
+  <si>
+    <t>9,34%</t>
+  </si>
+  <si>
+    <t>17,75%</t>
+  </si>
+  <si>
+    <t>11,06%</t>
+  </si>
+  <si>
+    <t>8,74%</t>
+  </si>
+  <si>
+    <t>14,23%</t>
+  </si>
+  <si>
+    <t>9,56%</t>
+  </si>
+  <si>
+    <t>6,79%</t>
+  </si>
+  <si>
+    <t>12,87%</t>
+  </si>
+  <si>
+    <t>10,82%</t>
+  </si>
+  <si>
+    <t>7,43%</t>
+  </si>
+  <si>
+    <t>15,26%</t>
+  </si>
+  <si>
+    <t>7,86%</t>
+  </si>
+  <si>
+    <t>12,42%</t>
+  </si>
+  <si>
+    <t>37,01%</t>
+  </si>
+  <si>
+    <t>32,23%</t>
+  </si>
+  <si>
+    <t>41,99%</t>
+  </si>
+  <si>
+    <t>33,61%</t>
+  </si>
+  <si>
+    <t>27,52%</t>
+  </si>
+  <si>
+    <t>39,86%</t>
+  </si>
+  <si>
+    <t>35,66%</t>
+  </si>
+  <si>
+    <t>31,78%</t>
+  </si>
+  <si>
+    <t>39,46%</t>
+  </si>
+  <si>
+    <t>25,81%</t>
+  </si>
+  <si>
+    <t>30,95%</t>
+  </si>
+  <si>
+    <t>23,27%</t>
+  </si>
+  <si>
+    <t>17,9%</t>
+  </si>
+  <si>
+    <t>28,97%</t>
+  </si>
+  <si>
+    <t>24,8%</t>
+  </si>
+  <si>
+    <t>21,46%</t>
+  </si>
+  <si>
+    <t>28,3%</t>
+  </si>
+  <si>
+    <t>17,88%</t>
+  </si>
+  <si>
+    <t>14,49%</t>
+  </si>
+  <si>
+    <t>22,23%</t>
+  </si>
+  <si>
+    <t>19,25%</t>
+  </si>
+  <si>
+    <t>14,57%</t>
+  </si>
+  <si>
+    <t>24,41%</t>
+  </si>
+  <si>
+    <t>18,42%</t>
+  </si>
+  <si>
+    <t>15,62%</t>
+  </si>
+  <si>
+    <t>21,63%</t>
+  </si>
+  <si>
+    <t>&gt;50.000hab</t>
+  </si>
+  <si>
+    <t>4,91%</t>
+  </si>
+  <si>
+    <t>2,77%</t>
+  </si>
+  <si>
+    <t>7,74%</t>
+  </si>
+  <si>
+    <t>10,63%</t>
+  </si>
+  <si>
+    <t>15,96%</t>
+  </si>
+  <si>
+    <t>7,19%</t>
+  </si>
+  <si>
     <t>5,05%</t>
   </si>
   <si>
-    <t>25,85%</t>
-  </si>
-  <si>
-    <t>27,04%</t>
-  </si>
-  <si>
-    <t>10,25%</t>
-  </si>
-  <si>
-    <t>48,4%</t>
-  </si>
-  <si>
-    <t>17,62%</t>
-  </si>
-  <si>
-    <t>10,19%</t>
+    <t>9,75%</t>
+  </si>
+  <si>
+    <t>10,22%</t>
+  </si>
+  <si>
+    <t>6,99%</t>
+  </si>
+  <si>
+    <t>14,92%</t>
+  </si>
+  <si>
+    <t>9,67%</t>
+  </si>
+  <si>
+    <t>6,33%</t>
+  </si>
+  <si>
+    <t>14,88%</t>
+  </si>
+  <si>
+    <t>10,0%</t>
+  </si>
+  <si>
+    <t>7,33%</t>
+  </si>
+  <si>
+    <t>13,29%</t>
+  </si>
+  <si>
+    <t>33,64%</t>
+  </si>
+  <si>
+    <t>28,35%</t>
+  </si>
+  <si>
+    <t>39,92%</t>
+  </si>
+  <si>
+    <t>29,23%</t>
+  </si>
+  <si>
+    <t>22,83%</t>
+  </si>
+  <si>
+    <t>36,74%</t>
+  </si>
+  <si>
+    <t>31,88%</t>
+  </si>
+  <si>
+    <t>27,93%</t>
+  </si>
+  <si>
+    <t>36,22%</t>
+  </si>
+  <si>
+    <t>24,44%</t>
+  </si>
+  <si>
+    <t>19,49%</t>
+  </si>
+  <si>
+    <t>29,59%</t>
+  </si>
+  <si>
+    <t>20,97%</t>
+  </si>
+  <si>
+    <t>15,32%</t>
+  </si>
+  <si>
+    <t>27,43%</t>
+  </si>
+  <si>
+    <t>23,05%</t>
+  </si>
+  <si>
+    <t>19,05%</t>
+  </si>
+  <si>
+    <t>27,02%</t>
+  </si>
+  <si>
+    <t>26,8%</t>
+  </si>
+  <si>
+    <t>21,89%</t>
+  </si>
+  <si>
+    <t>32,85%</t>
+  </si>
+  <si>
+    <t>29,5%</t>
+  </si>
+  <si>
+    <t>23,49%</t>
+  </si>
+  <si>
+    <t>36,56%</t>
+  </si>
+  <si>
+    <t>27,88%</t>
+  </si>
+  <si>
+    <t>24,33%</t>
+  </si>
+  <si>
+    <t>32,37%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
+  </si>
+  <si>
+    <t>11,28%</t>
+  </si>
+  <si>
+    <t>8,35%</t>
+  </si>
+  <si>
+    <t>14,81%</t>
+  </si>
+  <si>
+    <t>12,96%</t>
+  </si>
+  <si>
+    <t>16,9%</t>
+  </si>
+  <si>
+    <t>11,98%</t>
+  </si>
+  <si>
+    <t>9,7%</t>
+  </si>
+  <si>
+    <t>14,74%</t>
+  </si>
+  <si>
+    <t>11,01%</t>
+  </si>
+  <si>
+    <t>8,04%</t>
+  </si>
+  <si>
+    <t>14,75%</t>
+  </si>
+  <si>
+    <t>10,69%</t>
+  </si>
+  <si>
+    <t>7,49%</t>
+  </si>
+  <si>
+    <t>14,63%</t>
+  </si>
+  <si>
+    <t>10,87%</t>
+  </si>
+  <si>
+    <t>8,61%</t>
+  </si>
+  <si>
+    <t>13,63%</t>
+  </si>
+  <si>
+    <t>41,92%</t>
+  </si>
+  <si>
+    <t>37,09%</t>
+  </si>
+  <si>
+    <t>46,84%</t>
+  </si>
+  <si>
+    <t>36,92%</t>
+  </si>
+  <si>
+    <t>31,11%</t>
+  </si>
+  <si>
+    <t>42,62%</t>
+  </si>
+  <si>
+    <t>39,83%</t>
+  </si>
+  <si>
+    <t>35,87%</t>
+  </si>
+  <si>
+    <t>43,57%</t>
+  </si>
+  <si>
+    <t>19,45%</t>
+  </si>
+  <si>
+    <t>15,88%</t>
+  </si>
+  <si>
+    <t>23,98%</t>
+  </si>
+  <si>
+    <t>20,48%</t>
+  </si>
+  <si>
+    <t>16,28%</t>
+  </si>
+  <si>
+    <t>25,54%</t>
+  </si>
+  <si>
+    <t>19,88%</t>
+  </si>
+  <si>
+    <t>17,16%</t>
+  </si>
+  <si>
+    <t>23,13%</t>
+  </si>
+  <si>
+    <t>16,35%</t>
+  </si>
+  <si>
+    <t>12,98%</t>
+  </si>
+  <si>
+    <t>20,4%</t>
+  </si>
+  <si>
+    <t>18,94%</t>
+  </si>
+  <si>
+    <t>14,42%</t>
+  </si>
+  <si>
+    <t>23,63%</t>
+  </si>
+  <si>
+    <t>17,44%</t>
+  </si>
+  <si>
+    <t>20,32%</t>
+  </si>
+  <si>
+    <t>8,9%</t>
+  </si>
+  <si>
+    <t>7,36%</t>
+  </si>
+  <si>
+    <t>10,64%</t>
+  </si>
+  <si>
+    <t>12,08%</t>
+  </si>
+  <si>
+    <t>9,99%</t>
+  </si>
+  <si>
+    <t>14,35%</t>
+  </si>
+  <si>
+    <t>10,17%</t>
+  </si>
+  <si>
+    <t>8,97%</t>
+  </si>
+  <si>
+    <t>11,5%</t>
+  </si>
+  <si>
+    <t>10,71%</t>
+  </si>
+  <si>
+    <t>9,05%</t>
+  </si>
+  <si>
+    <t>12,54%</t>
+  </si>
+  <si>
+    <t>11,23%</t>
+  </si>
+  <si>
+    <t>9,41%</t>
+  </si>
+  <si>
+    <t>10,92%</t>
+  </si>
+  <si>
+    <t>9,59%</t>
+  </si>
+  <si>
+    <t>12,15%</t>
+  </si>
+  <si>
+    <t>37,8%</t>
+  </si>
+  <si>
+    <t>35,26%</t>
+  </si>
+  <si>
+    <t>40,55%</t>
+  </si>
+  <si>
+    <t>34,31%</t>
+  </si>
+  <si>
+    <t>31,27%</t>
+  </si>
+  <si>
+    <t>37,48%</t>
+  </si>
+  <si>
+    <t>36,4%</t>
+  </si>
+  <si>
+    <t>34,48%</t>
+  </si>
+  <si>
+    <t>38,59%</t>
+  </si>
+  <si>
+    <t>23,89%</t>
+  </si>
+  <si>
+    <t>21,84%</t>
+  </si>
+  <si>
+    <t>26,39%</t>
+  </si>
+  <si>
+    <t>21,86%</t>
+  </si>
+  <si>
+    <t>19,13%</t>
+  </si>
+  <si>
+    <t>23,07%</t>
+  </si>
+  <si>
+    <t>21,33%</t>
+  </si>
+  <si>
+    <t>24,74%</t>
+  </si>
+  <si>
+    <t>18,71%</t>
+  </si>
+  <si>
+    <t>16,92%</t>
+  </si>
+  <si>
+    <t>21,1%</t>
+  </si>
+  <si>
+    <t>20,52%</t>
+  </si>
+  <si>
+    <t>17,85%</t>
+  </si>
+  <si>
+    <t>19,43%</t>
+  </si>
+  <si>
+    <t>17,79%</t>
+  </si>
+  <si>
+    <t>20,93%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según si tienen que trabajar muy rápido en 2016 (Tasa respuesta: 35,56%)</t>
+  </si>
+  <si>
+    <t>9,53%</t>
+  </si>
+  <si>
+    <t>2,33%</t>
+  </si>
+  <si>
+    <t>22,63%</t>
+  </si>
+  <si>
+    <t>15,19%</t>
+  </si>
+  <si>
+    <t>5,56%</t>
+  </si>
+  <si>
+    <t>31,47%</t>
+  </si>
+  <si>
+    <t>11,81%</t>
+  </si>
+  <si>
+    <t>6,43%</t>
+  </si>
+  <si>
+    <t>21,13%</t>
+  </si>
+  <si>
+    <t>7,11%</t>
+  </si>
+  <si>
+    <t>2,3%</t>
+  </si>
+  <si>
+    <t>18,59%</t>
+  </si>
+  <si>
+    <t>8,91%</t>
+  </si>
+  <si>
+    <t>2,7%</t>
+  </si>
+  <si>
+    <t>24,29%</t>
+  </si>
+  <si>
+    <t>7,84%</t>
+  </si>
+  <si>
+    <t>2,66%</t>
+  </si>
+  <si>
+    <t>15,12%</t>
+  </si>
+  <si>
+    <t>31,57%</t>
+  </si>
+  <si>
+    <t>18,4%</t>
+  </si>
+  <si>
+    <t>46,92%</t>
+  </si>
+  <si>
+    <t>38,36%</t>
+  </si>
+  <si>
+    <t>22,0%</t>
+  </si>
+  <si>
+    <t>56,31%</t>
+  </si>
+  <si>
+    <t>23,9%</t>
+  </si>
+  <si>
+    <t>46,62%</t>
+  </si>
+  <si>
+    <t>38,87%</t>
+  </si>
+  <si>
+    <t>25,71%</t>
+  </si>
+  <si>
+    <t>54,8%</t>
+  </si>
+  <si>
+    <t>31,82%</t>
+  </si>
+  <si>
+    <t>17,02%</t>
+  </si>
+  <si>
+    <t>48,45%</t>
+  </si>
+  <si>
+    <t>36,02%</t>
+  </si>
+  <si>
+    <t>25,64%</t>
+  </si>
+  <si>
+    <t>47,88%</t>
+  </si>
+  <si>
+    <t>12,93%</t>
+  </si>
+  <si>
+    <t>4,45%</t>
+  </si>
+  <si>
+    <t>26,59%</t>
+  </si>
+  <si>
+    <t>5,72%</t>
+  </si>
+  <si>
+    <t>19,76%</t>
+  </si>
+  <si>
+    <t>10,01%</t>
+  </si>
+  <si>
+    <t>4,02%</t>
+  </si>
+  <si>
+    <t>19,24%</t>
+  </si>
+  <si>
+    <t>8,92%</t>
+  </si>
+  <si>
+    <t>5,45%</t>
+  </si>
+  <si>
+    <t>13,76%</t>
+  </si>
+  <si>
+    <t>12,72%</t>
+  </si>
+  <si>
+    <t>8,1%</t>
+  </si>
+  <si>
+    <t>10,47%</t>
+  </si>
+  <si>
+    <t>7,51%</t>
+  </si>
+  <si>
+    <t>13,95%</t>
+  </si>
+  <si>
+    <t>14,16%</t>
+  </si>
+  <si>
+    <t>10,1%</t>
+  </si>
+  <si>
+    <t>19,55%</t>
+  </si>
+  <si>
+    <t>16,44%</t>
+  </si>
+  <si>
+    <t>11,6%</t>
+  </si>
+  <si>
+    <t>23,43%</t>
+  </si>
+  <si>
+    <t>15,09%</t>
+  </si>
+  <si>
+    <t>18,85%</t>
+  </si>
+  <si>
+    <t>42,53%</t>
+  </si>
+  <si>
+    <t>35,99%</t>
+  </si>
+  <si>
+    <t>49,85%</t>
+  </si>
+  <si>
+    <t>35,92%</t>
+  </si>
+  <si>
+    <t>28,37%</t>
+  </si>
+  <si>
+    <t>43,88%</t>
+  </si>
+  <si>
+    <t>34,63%</t>
+  </si>
+  <si>
+    <t>45,25%</t>
+  </si>
+  <si>
+    <t>24,72%</t>
+  </si>
+  <si>
+    <t>30,87%</t>
+  </si>
+  <si>
+    <t>25,92%</t>
+  </si>
+  <si>
+    <t>19,1%</t>
+  </si>
+  <si>
+    <t>33,21%</t>
+  </si>
+  <si>
+    <t>25,21%</t>
+  </si>
+  <si>
+    <t>20,82%</t>
+  </si>
+  <si>
+    <t>30,21%</t>
+  </si>
+  <si>
+    <t>5,95%</t>
+  </si>
+  <si>
+    <t>14,7%</t>
+  </si>
+  <si>
+    <t>9,01%</t>
+  </si>
+  <si>
+    <t>4,89%</t>
+  </si>
+  <si>
+    <t>15,06%</t>
+  </si>
+  <si>
+    <t>12,67%</t>
+  </si>
+  <si>
+    <t>7,97%</t>
+  </si>
+  <si>
+    <t>5,22%</t>
+  </si>
+  <si>
+    <t>11,0%</t>
+  </si>
+  <si>
+    <t>11,17%</t>
+  </si>
+  <si>
+    <t>7,59%</t>
+  </si>
+  <si>
+    <t>15,01%</t>
+  </si>
+  <si>
+    <t>9,24%</t>
+  </si>
+  <si>
+    <t>7,21%</t>
+  </si>
+  <si>
+    <t>11,99%</t>
+  </si>
+  <si>
+    <t>12,94%</t>
+  </si>
+  <si>
+    <t>9,94%</t>
+  </si>
+  <si>
+    <t>16,5%</t>
+  </si>
+  <si>
+    <t>14,4%</t>
+  </si>
+  <si>
+    <t>18,81%</t>
+  </si>
+  <si>
+    <t>13,52%</t>
+  </si>
+  <si>
+    <t>11,09%</t>
+  </si>
+  <si>
+    <t>16,12%</t>
+  </si>
+  <si>
+    <t>35,17%</t>
+  </si>
+  <si>
+    <t>30,62%</t>
+  </si>
+  <si>
+    <t>39,95%</t>
+  </si>
+  <si>
+    <t>38,67%</t>
+  </si>
+  <si>
+    <t>32,61%</t>
+  </si>
+  <si>
+    <t>45,05%</t>
+  </si>
+  <si>
+    <t>33,37%</t>
+  </si>
+  <si>
+    <t>40,61%</t>
+  </si>
+  <si>
+    <t>28,99%</t>
+  </si>
+  <si>
+    <t>24,54%</t>
+  </si>
+  <si>
+    <t>33,65%</t>
+  </si>
+  <si>
+    <t>18,78%</t>
+  </si>
+  <si>
+    <t>14,25%</t>
+  </si>
+  <si>
+    <t>24,92%</t>
+  </si>
+  <si>
+    <t>21,97%</t>
+  </si>
+  <si>
+    <t>28,34%</t>
+  </si>
+  <si>
+    <t>14,94%</t>
+  </si>
+  <si>
+    <t>11,46%</t>
+  </si>
+  <si>
+    <t>18,66%</t>
+  </si>
+  <si>
+    <t>16,99%</t>
+  </si>
+  <si>
+    <t>12,52%</t>
+  </si>
+  <si>
+    <t>15,76%</t>
+  </si>
+  <si>
+    <t>12,9%</t>
+  </si>
+  <si>
+    <t>4,84%</t>
+  </si>
+  <si>
+    <t>2,83%</t>
+  </si>
+  <si>
+    <t>7,95%</t>
+  </si>
+  <si>
+    <t>5,28%</t>
+  </si>
+  <si>
+    <t>3,11%</t>
+  </si>
+  <si>
+    <t>5,03%</t>
+  </si>
+  <si>
+    <t>3,52%</t>
+  </si>
+  <si>
+    <t>7,12%</t>
+  </si>
+  <si>
+    <t>7,55%</t>
+  </si>
+  <si>
+    <t>5,07%</t>
+  </si>
+  <si>
+    <t>10,78%</t>
+  </si>
+  <si>
+    <t>8,49%</t>
+  </si>
+  <si>
+    <t>5,69%</t>
+  </si>
+  <si>
+    <t>12,24%</t>
+  </si>
+  <si>
+    <t>10,27%</t>
+  </si>
+  <si>
+    <t>29,65%</t>
+  </si>
+  <si>
+    <t>24,66%</t>
+  </si>
+  <si>
+    <t>34,42%</t>
+  </si>
+  <si>
+    <t>37,5%</t>
+  </si>
+  <si>
+    <t>32,1%</t>
+  </si>
+  <si>
+    <t>43,82%</t>
+  </si>
+  <si>
+    <t>33,0%</t>
+  </si>
+  <si>
+    <t>33,69%</t>
+  </si>
+  <si>
+    <t>28,61%</t>
+  </si>
+  <si>
+    <t>38,7%</t>
+  </si>
+  <si>
+    <t>25,6%</t>
+  </si>
+  <si>
+    <t>20,44%</t>
+  </si>
+  <si>
+    <t>30,71%</t>
+  </si>
+  <si>
+    <t>30,24%</t>
+  </si>
+  <si>
+    <t>26,75%</t>
+  </si>
+  <si>
+    <t>34,12%</t>
+  </si>
+  <si>
+    <t>24,28%</t>
+  </si>
+  <si>
+    <t>19,47%</t>
+  </si>
+  <si>
+    <t>28,96%</t>
+  </si>
+  <si>
+    <t>18,37%</t>
+  </si>
+  <si>
+    <t>28,56%</t>
+  </si>
+  <si>
+    <t>23,79%</t>
+  </si>
+  <si>
+    <t>20,34%</t>
+  </si>
+  <si>
+    <t>27,18%</t>
+  </si>
+  <si>
+    <t>3,95%</t>
+  </si>
+  <si>
+    <t>8,77%</t>
+  </si>
+  <si>
+    <t>5,93%</t>
+  </si>
+  <si>
+    <t>3,68%</t>
+  </si>
+  <si>
+    <t>9,14%</t>
+  </si>
+  <si>
+    <t>4,46%</t>
+  </si>
+  <si>
+    <t>7,93%</t>
+  </si>
+  <si>
+    <t>14,15%</t>
+  </si>
+  <si>
+    <t>17,77%</t>
+  </si>
+  <si>
+    <t>14,59%</t>
+  </si>
+  <si>
+    <t>10,89%</t>
+  </si>
+  <si>
+    <t>18,96%</t>
+  </si>
+  <si>
+    <t>11,67%</t>
+  </si>
+  <si>
+    <t>38,12%</t>
+  </si>
+  <si>
+    <t>33,4%</t>
+  </si>
+  <si>
+    <t>43,18%</t>
+  </si>
+  <si>
+    <t>38,43%</t>
+  </si>
+  <si>
+    <t>32,97%</t>
+  </si>
+  <si>
+    <t>44,06%</t>
+  </si>
+  <si>
+    <t>38,26%</t>
+  </si>
+  <si>
+    <t>34,72%</t>
+  </si>
+  <si>
+    <t>41,86%</t>
+  </si>
+  <si>
+    <t>21,58%</t>
+  </si>
+  <si>
+    <t>17,99%</t>
+  </si>
+  <si>
+    <t>26,14%</t>
+  </si>
+  <si>
+    <t>21,88%</t>
+  </si>
+  <si>
+    <t>26,62%</t>
+  </si>
+  <si>
+    <t>21,71%</t>
+  </si>
+  <si>
+    <t>18,89%</t>
+  </si>
+  <si>
+    <t>25,09%</t>
+  </si>
+  <si>
+    <t>20,13%</t>
+  </si>
+  <si>
+    <t>16,25%</t>
+  </si>
+  <si>
+    <t>24,57%</t>
+  </si>
+  <si>
+    <t>19,18%</t>
+  </si>
+  <si>
+    <t>15,17%</t>
+  </si>
+  <si>
+    <t>19,7%</t>
+  </si>
+  <si>
+    <t>16,8%</t>
+  </si>
+  <si>
+    <t>22,97%</t>
+  </si>
+  <si>
+    <t>6,8%</t>
+  </si>
+  <si>
+    <t>8,17%</t>
+  </si>
+  <si>
+    <t>8,31%</t>
+  </si>
+  <si>
+    <t>6,71%</t>
+  </si>
+  <si>
+    <t>9,98%</t>
+  </si>
+  <si>
+    <t>7,44%</t>
+  </si>
+  <si>
+    <t>6,32%</t>
+  </si>
+  <si>
+    <t>8,41%</t>
+  </si>
+  <si>
+    <t>11,89%</t>
+  </si>
+  <si>
+    <t>10,23%</t>
+  </si>
+  <si>
+    <t>13,67%</t>
+  </si>
+  <si>
+    <t>13,03%</t>
+  </si>
+  <si>
+    <t>11,14%</t>
+  </si>
+  <si>
+    <t>15,16%</t>
+  </si>
+  <si>
+    <t>12,37%</t>
+  </si>
+  <si>
+    <t>13,88%</t>
+  </si>
+  <si>
+    <t>35,51%</t>
+  </si>
+  <si>
+    <t>33,12%</t>
+  </si>
+  <si>
+    <t>38,28%</t>
+  </si>
+  <si>
+    <t>37,91%</t>
+  </si>
+  <si>
+    <t>34,99%</t>
+  </si>
+  <si>
+    <t>40,99%</t>
+  </si>
+  <si>
+    <t>36,52%</t>
+  </si>
+  <si>
+    <t>34,61%</t>
+  </si>
+  <si>
+    <t>38,56%</t>
+  </si>
+  <si>
+    <t>27,81%</t>
+  </si>
+  <si>
+    <t>25,39%</t>
+  </si>
+  <si>
+    <t>30,29%</t>
+  </si>
+  <si>
+    <t>22,85%</t>
+  </si>
+  <si>
+    <t>25,2%</t>
+  </si>
+  <si>
+    <t>25,72%</t>
+  </si>
+  <si>
+    <t>27,44%</t>
+  </si>
+  <si>
+    <t>15,92%</t>
+  </si>
+  <si>
+    <t>20,38%</t>
+  </si>
+  <si>
+    <t>17,89%</t>
+  </si>
+  <si>
+    <t>17,95%</t>
+  </si>
+  <si>
+    <t>16,43%</t>
+  </si>
+  <si>
+    <t>19,66%</t>
+  </si>
+  <si>
+    <t>Población según si tienen que trabajar muy rápido en 2023 (Tasa respuesta: 10,37%)</t>
+  </si>
+  <si>
+    <t>32,12%</t>
+  </si>
+  <si>
+    <t>6,46%</t>
+  </si>
+  <si>
+    <t>61,92%</t>
+  </si>
+  <si>
+    <t>27,48%</t>
+  </si>
+  <si>
+    <t>6,06%</t>
+  </si>
+  <si>
+    <t>57,54%</t>
+  </si>
+  <si>
+    <t>30,48%</t>
+  </si>
+  <si>
+    <t>14,19%</t>
+  </si>
+  <si>
+    <t>54,49%</t>
+  </si>
+  <si>
+    <t>8,21%</t>
+  </si>
+  <si>
+    <t>42,5%</t>
+  </si>
+  <si>
+    <t>8,36%</t>
+  </si>
+  <si>
+    <t>37,41%</t>
+  </si>
+  <si>
+    <t>8,26%</t>
+  </si>
+  <si>
+    <t>0,7%</t>
+  </si>
+  <si>
+    <t>36,79%</t>
+  </si>
+  <si>
+    <t>12,65%</t>
+  </si>
+  <si>
+    <t>74,83%</t>
+  </si>
+  <si>
+    <t>45,35%</t>
+  </si>
+  <si>
+    <t>17,23%</t>
+  </si>
+  <si>
+    <t>81,17%</t>
+  </si>
+  <si>
+    <t>39,81%</t>
+  </si>
+  <si>
+    <t>19,63%</t>
+  </si>
+  <si>
+    <t>64,41%</t>
+  </si>
+  <si>
+    <t>16,95%</t>
+  </si>
+  <si>
+    <t>48,34%</t>
+  </si>
+  <si>
+    <t>9,58%</t>
+  </si>
+  <si>
+    <t>47,16%</t>
+  </si>
+  <si>
+    <t>3,56%</t>
+  </si>
+  <si>
+    <t>31,25%</t>
+  </si>
+  <si>
+    <t>9,23%</t>
+  </si>
+  <si>
+    <t>47,68%</t>
+  </si>
+  <si>
+    <t>7,1%</t>
+  </si>
+  <si>
+    <t>22,81%</t>
+  </si>
+  <si>
+    <t>15,57%</t>
+  </si>
+  <si>
+    <t>7,6%</t>
+  </si>
+  <si>
+    <t>27,34%</t>
+  </si>
+  <si>
+    <t>12,33%</t>
+  </si>
+  <si>
+    <t>6,93%</t>
+  </si>
+  <si>
+    <t>22,65%</t>
+  </si>
+  <si>
+    <t>14,06%</t>
+  </si>
+  <si>
+    <t>8,22%</t>
+  </si>
+  <si>
+    <t>21,48%</t>
+  </si>
+  <si>
+    <t>9,9%</t>
+  </si>
+  <si>
+    <t>4,29%</t>
+  </si>
+  <si>
+    <t>18,0%</t>
+  </si>
+  <si>
+    <t>6,19%</t>
+  </si>
+  <si>
+    <t>20,12%</t>
+  </si>
+  <si>
+    <t>10,95%</t>
+  </si>
+  <si>
+    <t>7,04%</t>
+  </si>
+  <si>
+    <t>17,42%</t>
+  </si>
+  <si>
+    <t>31,63%</t>
+  </si>
+  <si>
+    <t>21,16%</t>
+  </si>
+  <si>
+    <t>47,34%</t>
+  </si>
+  <si>
+    <t>34,75%</t>
+  </si>
+  <si>
+    <t>24,88%</t>
+  </si>
+  <si>
+    <t>45,63%</t>
+  </si>
+  <si>
+    <t>33,09%</t>
+  </si>
+  <si>
+    <t>24,9%</t>
+  </si>
+  <si>
+    <t>42,15%</t>
+  </si>
+  <si>
+    <t>26,06%</t>
+  </si>
+  <si>
+    <t>14,51%</t>
+  </si>
+  <si>
+    <t>42,12%</t>
+  </si>
+  <si>
+    <t>26,68%</t>
+  </si>
+  <si>
+    <t>42,41%</t>
+  </si>
+  <si>
+    <t>26,35%</t>
+  </si>
+  <si>
+    <t>18,2%</t>
+  </si>
+  <si>
+    <t>16,84%</t>
+  </si>
+  <si>
+    <t>6,64%</t>
+  </si>
+  <si>
+    <t>33,31%</t>
+  </si>
+  <si>
+    <t>7,52%</t>
+  </si>
+  <si>
+    <t>26,6%</t>
+  </si>
+  <si>
+    <t>15,55%</t>
+  </si>
+  <si>
+    <t>9,52%</t>
+  </si>
+  <si>
+    <t>31,93%</t>
+  </si>
+  <si>
+    <t>66,76%</t>
+  </si>
+  <si>
+    <t>7,63%</t>
+  </si>
+  <si>
+    <t>19,78%</t>
+  </si>
+  <si>
+    <t>24,56%</t>
+  </si>
+  <si>
+    <t>9,93%</t>
+  </si>
+  <si>
+    <t>51,6%</t>
+  </si>
+  <si>
+    <t>9,27%</t>
+  </si>
+  <si>
+    <t>3,54%</t>
+  </si>
+  <si>
+    <t>9,85%</t>
+  </si>
+  <si>
+    <t>5,52%</t>
+  </si>
+  <si>
+    <t>15,41%</t>
+  </si>
+  <si>
+    <t>9,49%</t>
+  </si>
+  <si>
+    <t>5,5%</t>
+  </si>
+  <si>
+    <t>13,89%</t>
+  </si>
+  <si>
+    <t>14,48%</t>
+  </si>
+  <si>
+    <t>44,81%</t>
+  </si>
+  <si>
+    <t>30,88%</t>
+  </si>
+  <si>
+    <t>39,09%</t>
+  </si>
+  <si>
+    <t>31,03%</t>
+  </si>
+  <si>
+    <t>19,57%</t>
+  </si>
+  <si>
+    <t>38,91%</t>
+  </si>
+  <si>
+    <t>18,17%</t>
+  </si>
+  <si>
+    <t>8,5%</t>
+  </si>
+  <si>
+    <t>27,98%</t>
+  </si>
+  <si>
+    <t>24,96%</t>
+  </si>
+  <si>
+    <t>18,45%</t>
+  </si>
+  <si>
+    <t>31,67%</t>
+  </si>
+  <si>
+    <t>20,74%</t>
+  </si>
+  <si>
+    <t>13,14%</t>
+  </si>
+  <si>
+    <t>4,21%</t>
+  </si>
+  <si>
+    <t>16,71%</t>
+  </si>
+  <si>
+    <t>15,9%</t>
+  </si>
+  <si>
+    <t>29,87%</t>
+  </si>
+  <si>
+    <t>8,09%</t>
+  </si>
+  <si>
+    <t>19,26%</t>
   </si>
   <si>
     <t>28,16%</t>
   </si>
   <si>
-    <t>Algunas veces</t>
-  </si>
-  <si>
-    <t>34,24%</t>
-  </si>
-  <si>
-    <t>21,27%</t>
-  </si>
-  <si>
-    <t>50,41%</t>
-  </si>
-  <si>
-    <t>37,26%</t>
-  </si>
-  <si>
-    <t>18,05%</t>
-  </si>
-  <si>
-    <t>59,03%</t>
-  </si>
-  <si>
-    <t>35,23%</t>
-  </si>
-  <si>
-    <t>24,39%</t>
-  </si>
-  <si>
-    <t>47,19%</t>
-  </si>
-  <si>
-    <t>Muchas veces</t>
-  </si>
-  <si>
-    <t>30,91%</t>
-  </si>
-  <si>
-    <t>19,77%</t>
-  </si>
-  <si>
-    <t>45,25%</t>
-  </si>
-  <si>
-    <t>16,81%</t>
-  </si>
-  <si>
-    <t>4,14%</t>
-  </si>
-  <si>
-    <t>36,6%</t>
-  </si>
-  <si>
-    <t>26,3%</t>
-  </si>
-  <si>
-    <t>17,69%</t>
-  </si>
-  <si>
-    <t>37,14%</t>
-  </si>
-  <si>
-    <t>Siempre</t>
-  </si>
-  <si>
-    <t>13,34%</t>
-  </si>
-  <si>
-    <t>6,02%</t>
-  </si>
-  <si>
-    <t>25,33%</t>
-  </si>
-  <si>
-    <t>8,8%</t>
-  </si>
-  <si>
-    <t>27,9%</t>
-  </si>
-  <si>
-    <t>11,86%</t>
-  </si>
-  <si>
-    <t>6,22%</t>
-  </si>
-  <si>
-    <t>20,09%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>2-10.000 hab</t>
-  </si>
-  <si>
-    <t>8,72%</t>
-  </si>
-  <si>
-    <t>5,24%</t>
-  </si>
-  <si>
-    <t>13,26%</t>
-  </si>
-  <si>
-    <t>10,85%</t>
-  </si>
-  <si>
-    <t>17,49%</t>
-  </si>
-  <si>
-    <t>9,54%</t>
-  </si>
-  <si>
-    <t>6,85%</t>
-  </si>
-  <si>
-    <t>13,72%</t>
-  </si>
-  <si>
-    <t>12,49%</t>
-  </si>
-  <si>
-    <t>8,24%</t>
-  </si>
-  <si>
-    <t>17,66%</t>
-  </si>
-  <si>
-    <t>12,8%</t>
-  </si>
-  <si>
-    <t>8,25%</t>
-  </si>
-  <si>
-    <t>19,01%</t>
-  </si>
-  <si>
-    <t>12,61%</t>
-  </si>
-  <si>
-    <t>9,44%</t>
-  </si>
-  <si>
-    <t>16,6%</t>
-  </si>
-  <si>
-    <t>38,38%</t>
-  </si>
-  <si>
-    <t>31,83%</t>
-  </si>
-  <si>
-    <t>44,7%</t>
-  </si>
-  <si>
-    <t>37,37%</t>
-  </si>
-  <si>
-    <t>29,7%</t>
-  </si>
-  <si>
-    <t>46,48%</t>
-  </si>
-  <si>
-    <t>37,99%</t>
-  </si>
-  <si>
-    <t>33,11%</t>
-  </si>
-  <si>
-    <t>43,55%</t>
-  </si>
-  <si>
-    <t>26,32%</t>
-  </si>
-  <si>
-    <t>20,44%</t>
-  </si>
-  <si>
-    <t>32,94%</t>
-  </si>
-  <si>
-    <t>24,4%</t>
-  </si>
-  <si>
-    <t>17,68%</t>
-  </si>
-  <si>
-    <t>32,43%</t>
-  </si>
-  <si>
-    <t>25,58%</t>
-  </si>
-  <si>
-    <t>21,37%</t>
-  </si>
-  <si>
-    <t>31,36%</t>
-  </si>
-  <si>
-    <t>14,09%</t>
-  </si>
-  <si>
-    <t>9,96%</t>
-  </si>
-  <si>
-    <t>20,24%</t>
-  </si>
-  <si>
-    <t>14,58%</t>
-  </si>
-  <si>
-    <t>8,87%</t>
-  </si>
-  <si>
-    <t>21,28%</t>
-  </si>
-  <si>
-    <t>14,28%</t>
-  </si>
-  <si>
-    <t>10,73%</t>
-  </si>
-  <si>
-    <t>17,96%</t>
-  </si>
-  <si>
-    <t>10-50.000 hab</t>
-  </si>
-  <si>
-    <t>9,74%</t>
-  </si>
-  <si>
-    <t>6,68%</t>
-  </si>
-  <si>
-    <t>12,95%</t>
-  </si>
-  <si>
-    <t>13,05%</t>
-  </si>
-  <si>
-    <t>9,34%</t>
-  </si>
-  <si>
-    <t>18,37%</t>
-  </si>
-  <si>
-    <t>11,06%</t>
-  </si>
-  <si>
-    <t>8,63%</t>
-  </si>
-  <si>
-    <t>13,85%</t>
-  </si>
-  <si>
-    <t>9,56%</t>
+    <t>11,41%</t>
+  </si>
+  <si>
+    <t>20,07%</t>
+  </si>
+  <si>
+    <t>14,36%</t>
+  </si>
+  <si>
+    <t>21,09%</t>
+  </si>
+  <si>
+    <t>16,23%</t>
+  </si>
+  <si>
+    <t>8,82%</t>
+  </si>
+  <si>
+    <t>28,75%</t>
+  </si>
+  <si>
+    <t>12,48%</t>
+  </si>
+  <si>
+    <t>6,31%</t>
+  </si>
+  <si>
+    <t>21,34%</t>
+  </si>
+  <si>
+    <t>14,26%</t>
+  </si>
+  <si>
+    <t>21,78%</t>
+  </si>
+  <si>
+    <t>32,18%</t>
+  </si>
+  <si>
+    <t>21,61%</t>
+  </si>
+  <si>
+    <t>43,71%</t>
+  </si>
+  <si>
+    <t>29,71%</t>
+  </si>
+  <si>
+    <t>21,3%</t>
+  </si>
+  <si>
+    <t>39,84%</t>
+  </si>
+  <si>
+    <t>30,89%</t>
+  </si>
+  <si>
+    <t>24,2%</t>
+  </si>
+  <si>
+    <t>38,98%</t>
+  </si>
+  <si>
+    <t>26,21%</t>
+  </si>
+  <si>
+    <t>16,89%</t>
+  </si>
+  <si>
+    <t>38,46%</t>
+  </si>
+  <si>
+    <t>31,51%</t>
+  </si>
+  <si>
+    <t>22,04%</t>
+  </si>
+  <si>
+    <t>41,31%</t>
+  </si>
+  <si>
+    <t>36,16%</t>
+  </si>
+  <si>
+    <t>7,76%</t>
+  </si>
+  <si>
+    <t>2,9%</t>
+  </si>
+  <si>
+    <t>18,47%</t>
+  </si>
+  <si>
+    <t>14,89%</t>
+  </si>
+  <si>
+    <t>8,58%</t>
   </si>
   <si>
     <t>6,88%</t>
   </si>
   <si>
-    <t>12,91%</t>
-  </si>
-  <si>
-    <t>10,82%</t>
-  </si>
-  <si>
-    <t>7,62%</t>
-  </si>
-  <si>
-    <t>15,67%</t>
-  </si>
-  <si>
-    <t>10,06%</t>
-  </si>
-  <si>
-    <t>7,99%</t>
-  </si>
-  <si>
-    <t>12,69%</t>
-  </si>
-  <si>
-    <t>37,01%</t>
-  </si>
-  <si>
-    <t>32,27%</t>
-  </si>
-  <si>
-    <t>42,23%</t>
-  </si>
-  <si>
-    <t>33,61%</t>
-  </si>
-  <si>
-    <t>28,44%</t>
-  </si>
-  <si>
-    <t>40,03%</t>
-  </si>
-  <si>
-    <t>35,66%</t>
-  </si>
-  <si>
-    <t>32,07%</t>
-  </si>
-  <si>
-    <t>39,5%</t>
-  </si>
-  <si>
-    <t>25,81%</t>
-  </si>
-  <si>
-    <t>21,61%</t>
+    <t>17,33%</t>
+  </si>
+  <si>
+    <t>27,22%</t>
+  </si>
+  <si>
+    <t>18,95%</t>
+  </si>
+  <si>
+    <t>37,17%</t>
+  </si>
+  <si>
+    <t>21,52%</t>
+  </si>
+  <si>
+    <t>29,53%</t>
+  </si>
+  <si>
+    <t>24,61%</t>
+  </si>
+  <si>
+    <t>18,9%</t>
+  </si>
+  <si>
+    <t>31,06%</t>
+  </si>
+  <si>
+    <t>6,57%</t>
+  </si>
+  <si>
+    <t>2,78%</t>
+  </si>
+  <si>
+    <t>12,86%</t>
+  </si>
+  <si>
+    <t>9,92%</t>
+  </si>
+  <si>
+    <t>23,1%</t>
+  </si>
+  <si>
+    <t>10,5%</t>
+  </si>
+  <si>
+    <t>6,76%</t>
+  </si>
+  <si>
+    <t>14,9%</t>
+  </si>
+  <si>
+    <t>27,91%</t>
+  </si>
+  <si>
+    <t>37,46%</t>
+  </si>
+  <si>
+    <t>29,96%</t>
+  </si>
+  <si>
+    <t>22,43%</t>
+  </si>
+  <si>
+    <t>38,14%</t>
+  </si>
+  <si>
+    <t>28,85%</t>
+  </si>
+  <si>
+    <t>23,18%</t>
+  </si>
+  <si>
+    <t>35,31%</t>
+  </si>
+  <si>
+    <t>36,77%</t>
+  </si>
+  <si>
+    <t>17,64%</t>
+  </si>
+  <si>
+    <t>26,13%</t>
+  </si>
+  <si>
+    <t>21,98%</t>
+  </si>
+  <si>
+    <t>16,27%</t>
+  </si>
+  <si>
+    <t>28,36%</t>
+  </si>
+  <si>
+    <t>12,66%</t>
+  </si>
+  <si>
+    <t>7,05%</t>
+  </si>
+  <si>
+    <t>15,71%</t>
+  </si>
+  <si>
+    <t>9,45%</t>
+  </si>
+  <si>
+    <t>24,11%</t>
+  </si>
+  <si>
+    <t>9,46%</t>
+  </si>
+  <si>
+    <t>19,19%</t>
+  </si>
+  <si>
+    <t>26,07%</t>
+  </si>
+  <si>
+    <t>16,51%</t>
+  </si>
+  <si>
+    <t>49,83%</t>
+  </si>
+  <si>
+    <t>11,64%</t>
+  </si>
+  <si>
+    <t>18,29%</t>
+  </si>
+  <si>
+    <t>15,25%</t>
+  </si>
+  <si>
+    <t>6,24%</t>
+  </si>
+  <si>
+    <t>12,12%</t>
+  </si>
+  <si>
+    <t>9,3%</t>
+  </si>
+  <si>
+    <t>15,49%</t>
+  </si>
+  <si>
+    <t>8,59%</t>
+  </si>
+  <si>
+    <t>13,39%</t>
+  </si>
+  <si>
+    <t>30,81%</t>
+  </si>
+  <si>
+    <t>20,47%</t>
+  </si>
+  <si>
+    <t>36,41%</t>
   </si>
   <si>
     <t>31,35%</t>
   </si>
   <si>
-    <t>23,27%</t>
-  </si>
-  <si>
-    <t>18,12%</t>
-  </si>
-  <si>
-    <t>28,92%</t>
-  </si>
-  <si>
-    <t>24,8%</t>
-  </si>
-  <si>
-    <t>21,41%</t>
-  </si>
-  <si>
-    <t>28,22%</t>
-  </si>
-  <si>
-    <t>17,88%</t>
-  </si>
-  <si>
-    <t>14,61%</t>
-  </si>
-  <si>
-    <t>22,19%</t>
-  </si>
-  <si>
-    <t>19,25%</t>
-  </si>
-  <si>
-    <t>14,7%</t>
-  </si>
-  <si>
-    <t>25,13%</t>
-  </si>
-  <si>
-    <t>18,42%</t>
-  </si>
-  <si>
-    <t>15,53%</t>
-  </si>
-  <si>
-    <t>21,82%</t>
-  </si>
-  <si>
-    <t>&gt;50.000hab</t>
-  </si>
-  <si>
-    <t>4,91%</t>
-  </si>
-  <si>
-    <t>2,81%</t>
-  </si>
-  <si>
-    <t>7,77%</t>
-  </si>
-  <si>
-    <t>10,63%</t>
-  </si>
-  <si>
-    <t>6,76%</t>
-  </si>
-  <si>
-    <t>15,94%</t>
-  </si>
-  <si>
-    <t>7,19%</t>
-  </si>
-  <si>
-    <t>5,29%</t>
-  </si>
-  <si>
-    <t>9,79%</t>
-  </si>
-  <si>
-    <t>10,22%</t>
-  </si>
-  <si>
-    <t>7,1%</t>
-  </si>
-  <si>
-    <t>14,85%</t>
-  </si>
-  <si>
-    <t>9,67%</t>
-  </si>
-  <si>
-    <t>6,39%</t>
-  </si>
-  <si>
-    <t>15,42%</t>
-  </si>
-  <si>
-    <t>10,0%</t>
-  </si>
-  <si>
-    <t>7,75%</t>
-  </si>
-  <si>
-    <t>13,27%</t>
-  </si>
-  <si>
-    <t>33,64%</t>
-  </si>
-  <si>
-    <t>28,51%</t>
-  </si>
-  <si>
-    <t>39,34%</t>
-  </si>
-  <si>
-    <t>29,23%</t>
-  </si>
-  <si>
-    <t>23,03%</t>
-  </si>
-  <si>
-    <t>36,2%</t>
-  </si>
-  <si>
-    <t>31,88%</t>
-  </si>
-  <si>
-    <t>27,78%</t>
-  </si>
-  <si>
-    <t>35,89%</t>
-  </si>
-  <si>
-    <t>24,44%</t>
-  </si>
-  <si>
-    <t>20,15%</t>
-  </si>
-  <si>
-    <t>20,97%</t>
-  </si>
-  <si>
-    <t>26,79%</t>
-  </si>
-  <si>
-    <t>23,05%</t>
-  </si>
-  <si>
-    <t>19,48%</t>
-  </si>
-  <si>
-    <t>27,06%</t>
-  </si>
-  <si>
-    <t>26,8%</t>
-  </si>
-  <si>
-    <t>22,0%</t>
-  </si>
-  <si>
-    <t>32,42%</t>
-  </si>
-  <si>
-    <t>29,5%</t>
-  </si>
-  <si>
-    <t>23,25%</t>
-  </si>
-  <si>
-    <t>37,9%</t>
-  </si>
-  <si>
-    <t>27,88%</t>
-  </si>
-  <si>
-    <t>23,66%</t>
-  </si>
-  <si>
-    <t>32,12%</t>
-  </si>
-  <si>
-    <t>Capitales</t>
-  </si>
-  <si>
-    <t>11,28%</t>
-  </si>
-  <si>
-    <t>8,42%</t>
-  </si>
-  <si>
-    <t>14,82%</t>
-  </si>
-  <si>
-    <t>12,96%</t>
-  </si>
-  <si>
-    <t>9,29%</t>
-  </si>
-  <si>
-    <t>17,15%</t>
-  </si>
-  <si>
-    <t>11,98%</t>
-  </si>
-  <si>
-    <t>9,57%</t>
-  </si>
-  <si>
-    <t>14,8%</t>
-  </si>
-  <si>
-    <t>11,01%</t>
-  </si>
-  <si>
-    <t>8,15%</t>
+    <t>27,5%</t>
+  </si>
+  <si>
+    <t>35,64%</t>
+  </si>
+  <si>
+    <t>24,97%</t>
+  </si>
+  <si>
+    <t>34,79%</t>
+  </si>
+  <si>
+    <t>22,33%</t>
+  </si>
+  <si>
+    <t>15,74%</t>
+  </si>
+  <si>
+    <t>27,65%</t>
+  </si>
+  <si>
+    <t>24,62%</t>
+  </si>
+  <si>
+    <t>20,51%</t>
+  </si>
+  <si>
+    <t>28,7%</t>
+  </si>
+  <si>
+    <t>23,34%</t>
+  </si>
+  <si>
+    <t>18,73%</t>
+  </si>
+  <si>
+    <t>26,66%</t>
+  </si>
+  <si>
+    <t>10,93%</t>
   </si>
   <si>
     <t>15,1%</t>
   </si>
   <si>
-    <t>10,69%</t>
-  </si>
-  <si>
-    <t>14,65%</t>
-  </si>
-  <si>
-    <t>10,87%</t>
-  </si>
-  <si>
-    <t>8,53%</t>
-  </si>
-  <si>
-    <t>13,4%</t>
-  </si>
-  <si>
-    <t>41,92%</t>
-  </si>
-  <si>
-    <t>36,88%</t>
-  </si>
-  <si>
-    <t>47,28%</t>
-  </si>
-  <si>
-    <t>36,92%</t>
-  </si>
-  <si>
-    <t>31,4%</t>
-  </si>
-  <si>
-    <t>42,72%</t>
-  </si>
-  <si>
-    <t>39,83%</t>
-  </si>
-  <si>
-    <t>36,22%</t>
-  </si>
-  <si>
-    <t>43,56%</t>
-  </si>
-  <si>
-    <t>19,45%</t>
-  </si>
-  <si>
-    <t>15,75%</t>
-  </si>
-  <si>
-    <t>23,46%</t>
-  </si>
-  <si>
-    <t>20,48%</t>
-  </si>
-  <si>
-    <t>15,73%</t>
-  </si>
-  <si>
-    <t>25,43%</t>
-  </si>
-  <si>
-    <t>19,88%</t>
-  </si>
-  <si>
-    <t>16,7%</t>
-  </si>
-  <si>
-    <t>23,1%</t>
-  </si>
-  <si>
-    <t>16,35%</t>
-  </si>
-  <si>
-    <t>13,02%</t>
-  </si>
-  <si>
-    <t>20,59%</t>
-  </si>
-  <si>
-    <t>18,94%</t>
-  </si>
-  <si>
-    <t>14,35%</t>
-  </si>
-  <si>
-    <t>17,44%</t>
-  </si>
-  <si>
-    <t>14,98%</t>
-  </si>
-  <si>
-    <t>8,9%</t>
-  </si>
-  <si>
-    <t>7,41%</t>
-  </si>
-  <si>
-    <t>10,72%</t>
-  </si>
-  <si>
-    <t>12,08%</t>
-  </si>
-  <si>
-    <t>14,54%</t>
-  </si>
-  <si>
-    <t>10,17%</t>
-  </si>
-  <si>
-    <t>8,91%</t>
-  </si>
-  <si>
-    <t>11,49%</t>
-  </si>
-  <si>
-    <t>10,71%</t>
-  </si>
-  <si>
-    <t>9,12%</t>
-  </si>
-  <si>
-    <t>12,63%</t>
-  </si>
-  <si>
-    <t>11,23%</t>
-  </si>
-  <si>
-    <t>9,33%</t>
-  </si>
-  <si>
-    <t>13,48%</t>
-  </si>
-  <si>
-    <t>10,92%</t>
-  </si>
-  <si>
-    <t>9,65%</t>
-  </si>
-  <si>
-    <t>12,34%</t>
-  </si>
-  <si>
-    <t>37,8%</t>
-  </si>
-  <si>
-    <t>35,01%</t>
-  </si>
-  <si>
-    <t>40,41%</t>
-  </si>
-  <si>
-    <t>34,31%</t>
-  </si>
-  <si>
-    <t>31,38%</t>
-  </si>
-  <si>
-    <t>36,4%</t>
-  </si>
-  <si>
-    <t>34,33%</t>
-  </si>
-  <si>
-    <t>38,47%</t>
-  </si>
-  <si>
-    <t>23,89%</t>
-  </si>
-  <si>
-    <t>21,54%</t>
-  </si>
-  <si>
-    <t>26,36%</t>
-  </si>
-  <si>
-    <t>21,86%</t>
-  </si>
-  <si>
-    <t>18,78%</t>
-  </si>
-  <si>
-    <t>24,82%</t>
-  </si>
-  <si>
-    <t>23,07%</t>
-  </si>
-  <si>
-    <t>21,34%</t>
-  </si>
-  <si>
-    <t>24,89%</t>
-  </si>
-  <si>
-    <t>18,71%</t>
-  </si>
-  <si>
-    <t>16,71%</t>
-  </si>
-  <si>
-    <t>21,0%</t>
-  </si>
-  <si>
-    <t>20,52%</t>
-  </si>
-  <si>
-    <t>17,85%</t>
-  </si>
-  <si>
-    <t>23,41%</t>
-  </si>
-  <si>
-    <t>19,43%</t>
-  </si>
-  <si>
-    <t>17,84%</t>
-  </si>
-  <si>
-    <t>21,2%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según si tienen que trabajar muy rápido en 2016 (Tasa respuesta: 35,56%)</t>
-  </si>
-  <si>
-    <t>9,53%</t>
-  </si>
-  <si>
-    <t>2,29%</t>
-  </si>
-  <si>
-    <t>21,4%</t>
-  </si>
-  <si>
-    <t>15,19%</t>
-  </si>
-  <si>
-    <t>5,69%</t>
-  </si>
-  <si>
-    <t>30,44%</t>
-  </si>
-  <si>
-    <t>11,81%</t>
-  </si>
-  <si>
-    <t>5,65%</t>
-  </si>
-  <si>
-    <t>20,47%</t>
-  </si>
-  <si>
-    <t>7,11%</t>
-  </si>
-  <si>
-    <t>2,28%</t>
-  </si>
-  <si>
-    <t>18,82%</t>
-  </si>
-  <si>
-    <t>2,7%</t>
-  </si>
-  <si>
-    <t>23,23%</t>
-  </si>
-  <si>
-    <t>7,84%</t>
-  </si>
-  <si>
-    <t>2,75%</t>
-  </si>
-  <si>
-    <t>15,41%</t>
-  </si>
-  <si>
-    <t>31,57%</t>
-  </si>
-  <si>
-    <t>18,93%</t>
-  </si>
-  <si>
-    <t>45,43%</t>
-  </si>
-  <si>
-    <t>38,36%</t>
-  </si>
-  <si>
-    <t>22,74%</t>
-  </si>
-  <si>
-    <t>58,14%</t>
-  </si>
-  <si>
-    <t>24,36%</t>
-  </si>
-  <si>
-    <t>45,0%</t>
-  </si>
-  <si>
-    <t>38,87%</t>
-  </si>
-  <si>
-    <t>25,91%</t>
-  </si>
-  <si>
-    <t>53,91%</t>
-  </si>
-  <si>
-    <t>31,82%</t>
-  </si>
-  <si>
-    <t>50,9%</t>
-  </si>
-  <si>
-    <t>36,02%</t>
-  </si>
-  <si>
-    <t>25,63%</t>
-  </si>
-  <si>
-    <t>47,53%</t>
-  </si>
-  <si>
-    <t>12,93%</t>
-  </si>
-  <si>
-    <t>4,41%</t>
-  </si>
-  <si>
-    <t>5,72%</t>
-  </si>
-  <si>
-    <t>10,01%</t>
-  </si>
-  <si>
-    <t>3,95%</t>
-  </si>
-  <si>
-    <t>18,29%</t>
-  </si>
-  <si>
-    <t>8,92%</t>
-  </si>
-  <si>
-    <t>5,12%</t>
-  </si>
-  <si>
-    <t>13,99%</t>
-  </si>
-  <si>
-    <t>12,72%</t>
-  </si>
-  <si>
-    <t>7,42%</t>
-  </si>
-  <si>
-    <t>18,98%</t>
-  </si>
-  <si>
-    <t>10,47%</t>
-  </si>
-  <si>
-    <t>7,34%</t>
-  </si>
-  <si>
-    <t>13,95%</t>
-  </si>
-  <si>
-    <t>14,16%</t>
-  </si>
-  <si>
-    <t>9,86%</t>
-  </si>
-  <si>
-    <t>19,83%</t>
-  </si>
-  <si>
-    <t>16,44%</t>
-  </si>
-  <si>
-    <t>11,35%</t>
-  </si>
-  <si>
-    <t>15,09%</t>
-  </si>
-  <si>
-    <t>11,51%</t>
-  </si>
-  <si>
-    <t>19,52%</t>
-  </si>
-  <si>
-    <t>42,53%</t>
-  </si>
-  <si>
-    <t>35,26%</t>
-  </si>
-  <si>
-    <t>49,79%</t>
-  </si>
-  <si>
-    <t>35,92%</t>
-  </si>
-  <si>
-    <t>27,41%</t>
-  </si>
-  <si>
-    <t>44,43%</t>
-  </si>
-  <si>
-    <t>34,09%</t>
-  </si>
-  <si>
-    <t>45,64%</t>
-  </si>
-  <si>
-    <t>24,72%</t>
-  </si>
-  <si>
-    <t>18,72%</t>
-  </si>
-  <si>
-    <t>31,43%</t>
-  </si>
-  <si>
-    <t>25,92%</t>
-  </si>
-  <si>
-    <t>19,21%</t>
-  </si>
-  <si>
-    <t>33,57%</t>
-  </si>
-  <si>
-    <t>25,21%</t>
-  </si>
-  <si>
-    <t>20,4%</t>
-  </si>
-  <si>
-    <t>29,81%</t>
-  </si>
-  <si>
-    <t>6,16%</t>
-  </si>
-  <si>
-    <t>14,24%</t>
-  </si>
-  <si>
-    <t>9,01%</t>
-  </si>
-  <si>
-    <t>4,82%</t>
-  </si>
-  <si>
-    <t>14,94%</t>
-  </si>
-  <si>
-    <t>9,4%</t>
-  </si>
-  <si>
-    <t>6,56%</t>
-  </si>
-  <si>
-    <t>12,94%</t>
-  </si>
-  <si>
-    <t>7,97%</t>
-  </si>
-  <si>
-    <t>5,52%</t>
-  </si>
-  <si>
-    <t>10,98%</t>
-  </si>
-  <si>
-    <t>11,17%</t>
-  </si>
-  <si>
-    <t>7,76%</t>
-  </si>
-  <si>
-    <t>15,48%</t>
-  </si>
-  <si>
-    <t>9,24%</t>
-  </si>
-  <si>
-    <t>11,8%</t>
-  </si>
-  <si>
-    <t>9,71%</t>
-  </si>
-  <si>
-    <t>16,67%</t>
-  </si>
-  <si>
-    <t>14,4%</t>
-  </si>
-  <si>
-    <t>10,38%</t>
-  </si>
-  <si>
-    <t>13,52%</t>
-  </si>
-  <si>
-    <t>11,14%</t>
-  </si>
-  <si>
-    <t>16,36%</t>
-  </si>
-  <si>
-    <t>35,17%</t>
-  </si>
-  <si>
-    <t>30,22%</t>
-  </si>
-  <si>
-    <t>40,43%</t>
-  </si>
-  <si>
-    <t>38,67%</t>
-  </si>
-  <si>
-    <t>32,98%</t>
-  </si>
-  <si>
-    <t>44,88%</t>
-  </si>
-  <si>
-    <t>36,56%</t>
-  </si>
-  <si>
-    <t>32,84%</t>
-  </si>
-  <si>
-    <t>40,32%</t>
-  </si>
-  <si>
-    <t>28,99%</t>
-  </si>
-  <si>
-    <t>24,67%</t>
-  </si>
-  <si>
-    <t>33,7%</t>
-  </si>
-  <si>
-    <t>14,21%</t>
-  </si>
-  <si>
-    <t>24,13%</t>
-  </si>
-  <si>
-    <t>24,92%</t>
-  </si>
-  <si>
-    <t>21,63%</t>
-  </si>
-  <si>
-    <t>28,66%</t>
-  </si>
-  <si>
-    <t>11,39%</t>
-  </si>
-  <si>
-    <t>19,05%</t>
-  </si>
-  <si>
-    <t>16,99%</t>
-  </si>
-  <si>
-    <t>12,85%</t>
-  </si>
-  <si>
-    <t>21,87%</t>
-  </si>
-  <si>
-    <t>15,76%</t>
-  </si>
-  <si>
-    <t>13,13%</t>
-  </si>
-  <si>
-    <t>4,84%</t>
-  </si>
-  <si>
-    <t>2,82%</t>
-  </si>
-  <si>
-    <t>7,35%</t>
-  </si>
-  <si>
-    <t>5,28%</t>
-  </si>
-  <si>
-    <t>3,03%</t>
-  </si>
-  <si>
-    <t>8,46%</t>
-  </si>
-  <si>
-    <t>5,03%</t>
-  </si>
-  <si>
-    <t>3,53%</t>
-  </si>
-  <si>
-    <t>7,03%</t>
-  </si>
-  <si>
-    <t>7,55%</t>
-  </si>
-  <si>
-    <t>5,01%</t>
-  </si>
-  <si>
-    <t>8,49%</t>
-  </si>
-  <si>
-    <t>5,32%</t>
-  </si>
-  <si>
-    <t>12,56%</t>
-  </si>
-  <si>
-    <t>7,95%</t>
-  </si>
-  <si>
-    <t>5,92%</t>
-  </si>
-  <si>
-    <t>10,42%</t>
-  </si>
-  <si>
-    <t>29,65%</t>
-  </si>
-  <si>
-    <t>24,93%</t>
-  </si>
-  <si>
-    <t>34,86%</t>
-  </si>
-  <si>
-    <t>37,5%</t>
-  </si>
-  <si>
-    <t>31,72%</t>
-  </si>
-  <si>
-    <t>43,41%</t>
-  </si>
-  <si>
-    <t>33,0%</t>
-  </si>
-  <si>
-    <t>29,45%</t>
-  </si>
-  <si>
-    <t>36,93%</t>
-  </si>
-  <si>
-    <t>33,69%</t>
-  </si>
-  <si>
-    <t>28,86%</t>
-  </si>
-  <si>
-    <t>39,19%</t>
-  </si>
-  <si>
-    <t>25,6%</t>
-  </si>
-  <si>
-    <t>20,85%</t>
-  </si>
-  <si>
-    <t>30,68%</t>
-  </si>
-  <si>
-    <t>30,24%</t>
-  </si>
-  <si>
-    <t>26,46%</t>
-  </si>
-  <si>
-    <t>34,18%</t>
-  </si>
-  <si>
-    <t>24,28%</t>
-  </si>
-  <si>
-    <t>19,57%</t>
-  </si>
-  <si>
-    <t>28,91%</t>
-  </si>
-  <si>
-    <t>23,13%</t>
-  </si>
-  <si>
-    <t>28,3%</t>
-  </si>
-  <si>
-    <t>23,79%</t>
-  </si>
-  <si>
-    <t>20,39%</t>
-  </si>
-  <si>
-    <t>27,64%</t>
-  </si>
-  <si>
-    <t>6,03%</t>
-  </si>
-  <si>
-    <t>3,9%</t>
-  </si>
-  <si>
-    <t>8,93%</t>
-  </si>
-  <si>
-    <t>5,93%</t>
-  </si>
-  <si>
-    <t>3,75%</t>
-  </si>
-  <si>
-    <t>5,98%</t>
-  </si>
-  <si>
-    <t>4,44%</t>
-  </si>
-  <si>
-    <t>8,22%</t>
-  </si>
-  <si>
-    <t>14,15%</t>
-  </si>
-  <si>
-    <t>10,9%</t>
-  </si>
-  <si>
-    <t>17,93%</t>
-  </si>
-  <si>
-    <t>14,59%</t>
-  </si>
-  <si>
-    <t>19,18%</t>
-  </si>
-  <si>
-    <t>11,96%</t>
-  </si>
-  <si>
-    <t>17,29%</t>
-  </si>
-  <si>
-    <t>38,12%</t>
-  </si>
-  <si>
-    <t>33,35%</t>
-  </si>
-  <si>
-    <t>43,31%</t>
-  </si>
-  <si>
-    <t>38,43%</t>
-  </si>
-  <si>
-    <t>32,97%</t>
-  </si>
-  <si>
-    <t>43,86%</t>
-  </si>
-  <si>
-    <t>38,26%</t>
-  </si>
-  <si>
-    <t>34,98%</t>
-  </si>
-  <si>
-    <t>42,02%</t>
-  </si>
-  <si>
-    <t>21,58%</t>
-  </si>
-  <si>
-    <t>17,54%</t>
-  </si>
-  <si>
-    <t>26,02%</t>
-  </si>
-  <si>
-    <t>21,88%</t>
-  </si>
-  <si>
-    <t>17,67%</t>
-  </si>
-  <si>
-    <t>26,64%</t>
-  </si>
-  <si>
-    <t>21,71%</t>
-  </si>
-  <si>
-    <t>18,49%</t>
-  </si>
-  <si>
-    <t>24,75%</t>
-  </si>
-  <si>
-    <t>20,13%</t>
-  </si>
-  <si>
-    <t>15,88%</t>
-  </si>
-  <si>
-    <t>24,41%</t>
-  </si>
-  <si>
-    <t>24,0%</t>
-  </si>
-  <si>
-    <t>19,7%</t>
-  </si>
-  <si>
-    <t>16,89%</t>
-  </si>
-  <si>
-    <t>22,86%</t>
-  </si>
-  <si>
-    <t>6,8%</t>
-  </si>
-  <si>
-    <t>5,53%</t>
-  </si>
-  <si>
-    <t>8,39%</t>
-  </si>
-  <si>
-    <t>8,31%</t>
-  </si>
-  <si>
-    <t>6,74%</t>
-  </si>
-  <si>
-    <t>10,18%</t>
-  </si>
-  <si>
-    <t>7,44%</t>
-  </si>
-  <si>
-    <t>6,32%</t>
-  </si>
-  <si>
-    <t>11,89%</t>
-  </si>
-  <si>
-    <t>10,29%</t>
-  </si>
-  <si>
-    <t>13,93%</t>
-  </si>
-  <si>
-    <t>13,03%</t>
-  </si>
-  <si>
-    <t>15,35%</t>
-  </si>
-  <si>
-    <t>12,37%</t>
-  </si>
-  <si>
-    <t>13,82%</t>
-  </si>
-  <si>
-    <t>35,51%</t>
-  </si>
-  <si>
-    <t>32,88%</t>
-  </si>
-  <si>
-    <t>38,15%</t>
-  </si>
-  <si>
-    <t>37,91%</t>
-  </si>
-  <si>
-    <t>34,79%</t>
-  </si>
-  <si>
-    <t>40,88%</t>
-  </si>
-  <si>
-    <t>36,52%</t>
-  </si>
-  <si>
-    <t>34,67%</t>
-  </si>
-  <si>
-    <t>38,68%</t>
-  </si>
-  <si>
-    <t>27,81%</t>
-  </si>
-  <si>
-    <t>25,64%</t>
-  </si>
-  <si>
-    <t>22,85%</t>
-  </si>
-  <si>
-    <t>20,33%</t>
-  </si>
-  <si>
-    <t>25,72%</t>
-  </si>
-  <si>
-    <t>23,81%</t>
-  </si>
-  <si>
-    <t>27,57%</t>
-  </si>
-  <si>
-    <t>17,99%</t>
-  </si>
-  <si>
-    <t>15,89%</t>
-  </si>
-  <si>
-    <t>20,12%</t>
-  </si>
-  <si>
-    <t>17,89%</t>
-  </si>
-  <si>
-    <t>20,41%</t>
-  </si>
-  <si>
-    <t>17,95%</t>
-  </si>
-  <si>
-    <t>19,59%</t>
-  </si>
-  <si>
-    <t>Población según si tienen que trabajar muy rápido en 2023 (Tasa respuesta: 10,37%)</t>
-  </si>
-  <si>
-    <t>66,29%</t>
-  </si>
-  <si>
-    <t>27,48%</t>
-  </si>
-  <si>
-    <t>6,07%</t>
-  </si>
-  <si>
-    <t>57,03%</t>
-  </si>
-  <si>
-    <t>30,48%</t>
-  </si>
-  <si>
-    <t>12,78%</t>
-  </si>
-  <si>
-    <t>52,62%</t>
-  </si>
-  <si>
-    <t>8,21%</t>
-  </si>
-  <si>
-    <t>37,21%</t>
-  </si>
-  <si>
-    <t>8,36%</t>
-  </si>
-  <si>
-    <t>36,42%</t>
-  </si>
-  <si>
-    <t>8,26%</t>
-  </si>
-  <si>
-    <t>1,28%</t>
-  </si>
-  <si>
-    <t>32,82%</t>
-  </si>
-  <si>
-    <t>36,79%</t>
-  </si>
-  <si>
-    <t>12,84%</t>
-  </si>
-  <si>
-    <t>73,59%</t>
-  </si>
-  <si>
-    <t>45,35%</t>
-  </si>
-  <si>
-    <t>19,0%</t>
-  </si>
-  <si>
-    <t>77,48%</t>
-  </si>
-  <si>
-    <t>39,81%</t>
-  </si>
-  <si>
-    <t>21,42%</t>
-  </si>
-  <si>
-    <t>66,59%</t>
-  </si>
-  <si>
-    <t>16,95%</t>
-  </si>
-  <si>
-    <t>52,48%</t>
-  </si>
-  <si>
-    <t>9,58%</t>
-  </si>
-  <si>
-    <t>45,11%</t>
-  </si>
-  <si>
-    <t>3,79%</t>
-  </si>
-  <si>
-    <t>35,0%</t>
-  </si>
-  <si>
-    <t>33,71%</t>
-  </si>
-  <si>
-    <t>9,23%</t>
-  </si>
-  <si>
-    <t>45,49%</t>
-  </si>
-  <si>
-    <t>24,54%</t>
-  </si>
-  <si>
-    <t>15,57%</t>
-  </si>
-  <si>
-    <t>6,61%</t>
-  </si>
-  <si>
-    <t>28,11%</t>
-  </si>
-  <si>
-    <t>12,33%</t>
-  </si>
-  <si>
-    <t>6,13%</t>
-  </si>
-  <si>
-    <t>21,49%</t>
-  </si>
-  <si>
-    <t>14,06%</t>
-  </si>
-  <si>
-    <t>8,27%</t>
-  </si>
-  <si>
-    <t>21,21%</t>
-  </si>
-  <si>
-    <t>9,9%</t>
-  </si>
-  <si>
-    <t>4,04%</t>
-  </si>
-  <si>
-    <t>19,13%</t>
-  </si>
-  <si>
-    <t>12,15%</t>
-  </si>
-  <si>
-    <t>20,65%</t>
-  </si>
-  <si>
-    <t>10,95%</t>
-  </si>
-  <si>
-    <t>6,65%</t>
-  </si>
-  <si>
-    <t>17,13%</t>
-  </si>
-  <si>
-    <t>31,63%</t>
-  </si>
-  <si>
-    <t>19,62%</t>
-  </si>
-  <si>
-    <t>46,98%</t>
-  </si>
-  <si>
-    <t>34,75%</t>
-  </si>
-  <si>
-    <t>24,3%</t>
-  </si>
-  <si>
-    <t>45,72%</t>
-  </si>
-  <si>
-    <t>33,09%</t>
-  </si>
-  <si>
-    <t>25,62%</t>
-  </si>
-  <si>
-    <t>42,06%</t>
-  </si>
-  <si>
-    <t>26,06%</t>
-  </si>
-  <si>
-    <t>14,93%</t>
-  </si>
-  <si>
-    <t>40,06%</t>
-  </si>
-  <si>
-    <t>26,68%</t>
-  </si>
-  <si>
-    <t>17,01%</t>
-  </si>
-  <si>
-    <t>40,6%</t>
-  </si>
-  <si>
-    <t>26,35%</t>
-  </si>
-  <si>
-    <t>18,96%</t>
-  </si>
-  <si>
-    <t>36,59%</t>
-  </si>
-  <si>
-    <t>16,84%</t>
-  </si>
-  <si>
-    <t>7,16%</t>
-  </si>
-  <si>
-    <t>34,46%</t>
-  </si>
-  <si>
-    <t>6,64%</t>
-  </si>
-  <si>
-    <t>15,55%</t>
-  </si>
-  <si>
-    <t>24,62%</t>
-  </si>
-  <si>
-    <t>31,93%</t>
-  </si>
-  <si>
-    <t>66,04%</t>
-  </si>
-  <si>
-    <t>12,42%</t>
-  </si>
-  <si>
-    <t>7,73%</t>
-  </si>
-  <si>
-    <t>18,56%</t>
-  </si>
-  <si>
-    <t>24,56%</t>
-  </si>
-  <si>
-    <t>9,81%</t>
-  </si>
-  <si>
-    <t>52,98%</t>
-  </si>
-  <si>
-    <t>9,27%</t>
-  </si>
-  <si>
-    <t>3,86%</t>
-  </si>
-  <si>
-    <t>15,33%</t>
-  </si>
-  <si>
-    <t>9,85%</t>
-  </si>
-  <si>
-    <t>15,98%</t>
-  </si>
-  <si>
-    <t>9,49%</t>
-  </si>
-  <si>
-    <t>13,69%</t>
-  </si>
-  <si>
-    <t>31,11%</t>
-  </si>
-  <si>
-    <t>13,67%</t>
-  </si>
-  <si>
-    <t>43,62%</t>
-  </si>
-  <si>
-    <t>30,88%</t>
-  </si>
-  <si>
-    <t>24,05%</t>
-  </si>
-  <si>
-    <t>39,12%</t>
-  </si>
-  <si>
-    <t>31,03%</t>
-  </si>
-  <si>
-    <t>19,61%</t>
-  </si>
-  <si>
-    <t>18,17%</t>
-  </si>
-  <si>
-    <t>7,94%</t>
-  </si>
-  <si>
-    <t>27,36%</t>
-  </si>
-  <si>
-    <t>24,96%</t>
-  </si>
-  <si>
-    <t>18,87%</t>
-  </si>
-  <si>
-    <t>32,64%</t>
-  </si>
-  <si>
-    <t>20,74%</t>
-  </si>
-  <si>
-    <t>12,46%</t>
-  </si>
-  <si>
-    <t>26,97%</t>
-  </si>
-  <si>
-    <t>9,52%</t>
-  </si>
-  <si>
-    <t>15,8%</t>
-  </si>
-  <si>
-    <t>16,17%</t>
-  </si>
-  <si>
-    <t>29,55%</t>
-  </si>
-  <si>
-    <t>14,19%</t>
-  </si>
-  <si>
-    <t>19,53%</t>
-  </si>
-  <si>
-    <t>9,18%</t>
-  </si>
-  <si>
-    <t>29,13%</t>
-  </si>
-  <si>
-    <t>11,41%</t>
-  </si>
-  <si>
-    <t>5,91%</t>
-  </si>
-  <si>
-    <t>19,99%</t>
-  </si>
-  <si>
-    <t>14,36%</t>
-  </si>
-  <si>
-    <t>9,31%</t>
-  </si>
-  <si>
-    <t>20,95%</t>
-  </si>
-  <si>
-    <t>16,23%</t>
-  </si>
-  <si>
-    <t>7,8%</t>
-  </si>
-  <si>
-    <t>28,58%</t>
-  </si>
-  <si>
-    <t>12,48%</t>
-  </si>
-  <si>
-    <t>6,23%</t>
-  </si>
-  <si>
-    <t>21,16%</t>
-  </si>
-  <si>
-    <t>14,26%</t>
-  </si>
-  <si>
-    <t>9,26%</t>
-  </si>
-  <si>
-    <t>21,11%</t>
-  </si>
-  <si>
-    <t>32,18%</t>
-  </si>
-  <si>
-    <t>21,78%</t>
-  </si>
-  <si>
-    <t>44,26%</t>
-  </si>
-  <si>
-    <t>29,71%</t>
-  </si>
-  <si>
-    <t>21,15%</t>
-  </si>
-  <si>
-    <t>39,09%</t>
-  </si>
-  <si>
-    <t>30,89%</t>
-  </si>
-  <si>
-    <t>26,21%</t>
-  </si>
-  <si>
-    <t>16,54%</t>
-  </si>
-  <si>
-    <t>38,5%</t>
-  </si>
-  <si>
-    <t>31,51%</t>
-  </si>
-  <si>
-    <t>22,84%</t>
-  </si>
-  <si>
-    <t>40,98%</t>
-  </si>
-  <si>
-    <t>22,62%</t>
-  </si>
-  <si>
-    <t>36,85%</t>
-  </si>
-  <si>
-    <t>1,88%</t>
-  </si>
-  <si>
-    <t>18,84%</t>
-  </si>
-  <si>
-    <t>14,89%</t>
-  </si>
-  <si>
-    <t>22,99%</t>
-  </si>
-  <si>
-    <t>11,5%</t>
-  </si>
-  <si>
-    <t>17,61%</t>
-  </si>
-  <si>
-    <t>27,22%</t>
-  </si>
-  <si>
-    <t>19,47%</t>
-  </si>
-  <si>
-    <t>36,47%</t>
-  </si>
-  <si>
-    <t>21,52%</t>
-  </si>
-  <si>
-    <t>14,9%</t>
-  </si>
-  <si>
-    <t>30,53%</t>
-  </si>
-  <si>
-    <t>24,61%</t>
-  </si>
-  <si>
-    <t>19,17%</t>
-  </si>
-  <si>
-    <t>30,6%</t>
-  </si>
-  <si>
-    <t>6,57%</t>
-  </si>
-  <si>
-    <t>2,9%</t>
-  </si>
-  <si>
-    <t>15,16%</t>
-  </si>
-  <si>
-    <t>8,83%</t>
-  </si>
-  <si>
-    <t>22,57%</t>
-  </si>
-  <si>
-    <t>10,5%</t>
-  </si>
-  <si>
-    <t>6,79%</t>
-  </si>
-  <si>
-    <t>14,81%</t>
-  </si>
-  <si>
-    <t>27,91%</t>
-  </si>
-  <si>
-    <t>19,64%</t>
-  </si>
-  <si>
-    <t>36,97%</t>
-  </si>
-  <si>
-    <t>29,96%</t>
-  </si>
-  <si>
-    <t>22,6%</t>
-  </si>
-  <si>
-    <t>38,33%</t>
-  </si>
-  <si>
-    <t>28,85%</t>
-  </si>
-  <si>
-    <t>23,71%</t>
-  </si>
-  <si>
-    <t>35,09%</t>
-  </si>
-  <si>
-    <t>18,09%</t>
-  </si>
-  <si>
-    <t>35,94%</t>
-  </si>
-  <si>
-    <t>17,64%</t>
-  </si>
-  <si>
-    <t>11,65%</t>
-  </si>
-  <si>
-    <t>21,98%</t>
-  </si>
-  <si>
-    <t>28,54%</t>
-  </si>
-  <si>
-    <t>12,66%</t>
-  </si>
-  <si>
-    <t>7,17%</t>
-  </si>
-  <si>
-    <t>15,71%</t>
-  </si>
-  <si>
-    <t>10,16%</t>
-  </si>
-  <si>
-    <t>24,7%</t>
-  </si>
-  <si>
-    <t>19,31%</t>
-  </si>
-  <si>
-    <t>26,07%</t>
-  </si>
-  <si>
-    <t>48,45%</t>
-  </si>
-  <si>
-    <t>14,74%</t>
-  </si>
-  <si>
-    <t>11,29%</t>
-  </si>
-  <si>
-    <t>18,2%</t>
-  </si>
-  <si>
-    <t>21,1%</t>
-  </si>
-  <si>
-    <t>15,3%</t>
-  </si>
-  <si>
-    <t>38,76%</t>
-  </si>
-  <si>
-    <t>6,58%</t>
-  </si>
-  <si>
-    <t>14,08%</t>
-  </si>
-  <si>
-    <t>12,12%</t>
-  </si>
-  <si>
-    <t>15,5%</t>
-  </si>
-  <si>
-    <t>8,4%</t>
-  </si>
-  <si>
-    <t>30,81%</t>
-  </si>
-  <si>
-    <t>36,63%</t>
-  </si>
-  <si>
-    <t>27,03%</t>
-  </si>
-  <si>
-    <t>35,71%</t>
-  </si>
-  <si>
-    <t>31,05%</t>
-  </si>
-  <si>
-    <t>25,32%</t>
-  </si>
-  <si>
-    <t>35,06%</t>
-  </si>
-  <si>
-    <t>22,33%</t>
-  </si>
-  <si>
-    <t>16,11%</t>
-  </si>
-  <si>
-    <t>27,95%</t>
-  </si>
-  <si>
-    <t>21,01%</t>
-  </si>
-  <si>
-    <t>29,12%</t>
-  </si>
-  <si>
-    <t>23,34%</t>
-  </si>
-  <si>
-    <t>18,61%</t>
-  </si>
-  <si>
-    <t>26,85%</t>
-  </si>
-  <si>
-    <t>10,93%</t>
-  </si>
-  <si>
-    <t>7,25%</t>
-  </si>
-  <si>
-    <t>15,43%</t>
-  </si>
-  <si>
-    <t>17,16%</t>
-  </si>
-  <si>
-    <t>13,86%</t>
-  </si>
-  <si>
-    <t>20,73%</t>
+    <t>13,68%</t>
+  </si>
+  <si>
+    <t>20,81%</t>
   </si>
   <si>
     <t>13,66%</t>
   </si>
   <si>
-    <t>16,18%</t>
+    <t>11,13%</t>
+  </si>
+  <si>
+    <t>16,69%</t>
   </si>
 </sst>
 </file>
@@ -2696,7 +2666,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{97BAE00F-B3D8-4E58-B57A-2D5F9443B058}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D35CC34F-DFB8-4C2E-80C8-9317D97498B6}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -3146,10 +3116,10 @@
         <v>64</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>52</v>
+        <v>65</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="M10" s="7">
         <v>30</v>
@@ -3158,13 +3128,13 @@
         <v>33719</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3179,13 +3149,13 @@
         <v>27119</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="H11" s="7">
         <v>17</v>
@@ -3194,13 +3164,13 @@
         <v>17418</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="M11" s="7">
         <v>42</v>
@@ -3209,13 +3179,13 @@
         <v>44537</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3230,13 +3200,13 @@
         <v>83366</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H12" s="7">
         <v>48</v>
@@ -3245,13 +3215,13 @@
         <v>50859</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="M12" s="7">
         <v>129</v>
@@ -3260,13 +3230,13 @@
         <v>134226</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -3281,13 +3251,13 @@
         <v>57161</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="H13" s="7">
         <v>31</v>
@@ -3296,13 +3266,13 @@
         <v>33206</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="M13" s="7">
         <v>84</v>
@@ -3311,13 +3281,13 @@
         <v>90367</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3332,13 +3302,13 @@
         <v>30608</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="H14" s="7">
         <v>19</v>
@@ -3347,13 +3317,13 @@
         <v>19836</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="M14" s="7">
         <v>49</v>
@@ -3362,13 +3332,13 @@
         <v>50444</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3424,7 +3394,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -3436,13 +3406,13 @@
         <v>39999</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="H16" s="7">
         <v>31</v>
@@ -3451,13 +3421,13 @@
         <v>35434</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="M16" s="7">
         <v>66</v>
@@ -3466,13 +3436,13 @@
         <v>75432</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3487,13 +3457,13 @@
         <v>39274</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="H17" s="7">
         <v>27</v>
@@ -3502,13 +3472,13 @@
         <v>29381</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="M17" s="7">
         <v>64</v>
@@ -3517,7 +3487,7 @@
         <v>68655</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>121</v>
+        <v>98</v>
       </c>
       <c r="P17" s="7" t="s">
         <v>122</v>
@@ -3592,10 +3562,10 @@
         <v>133</v>
       </c>
       <c r="F19" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="G19" s="7" t="s">
         <v>134</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>135</v>
       </c>
       <c r="H19" s="7">
         <v>56</v>
@@ -3604,13 +3574,13 @@
         <v>63190</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="K19" s="7" t="s">
         <v>136</v>
       </c>
-      <c r="K19" s="7" t="s">
+      <c r="L19" s="7" t="s">
         <v>137</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>138</v>
       </c>
       <c r="M19" s="7">
         <v>150</v>
@@ -3619,13 +3589,13 @@
         <v>169203</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="P19" s="7" t="s">
         <v>139</v>
       </c>
-      <c r="P19" s="7" t="s">
+      <c r="Q19" s="7" t="s">
         <v>140</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>141</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3640,13 +3610,13 @@
         <v>73428</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="F20" s="7" t="s">
         <v>142</v>
       </c>
-      <c r="F20" s="7" t="s">
+      <c r="G20" s="7" t="s">
         <v>143</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>144</v>
       </c>
       <c r="H20" s="7">
         <v>48</v>
@@ -3655,13 +3625,13 @@
         <v>52272</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="K20" s="7" t="s">
         <v>145</v>
       </c>
-      <c r="K20" s="7" t="s">
+      <c r="L20" s="7" t="s">
         <v>146</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>147</v>
       </c>
       <c r="M20" s="7">
         <v>118</v>
@@ -3670,13 +3640,13 @@
         <v>125700</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="P20" s="7" t="s">
         <v>148</v>
       </c>
-      <c r="P20" s="7" t="s">
+      <c r="Q20" s="7" t="s">
         <v>149</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>150</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3732,7 +3702,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -3744,13 +3714,13 @@
         <v>15826</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="F22" s="7" t="s">
         <v>152</v>
       </c>
-      <c r="F22" s="7" t="s">
+      <c r="G22" s="7" t="s">
         <v>153</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>154</v>
       </c>
       <c r="H22" s="7">
         <v>20</v>
@@ -3759,13 +3729,13 @@
         <v>22775</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="K22" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="L22" s="7" t="s">
         <v>155</v>
-      </c>
-      <c r="K22" s="7" t="s">
-        <v>156</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>157</v>
       </c>
       <c r="M22" s="7">
         <v>35</v>
@@ -3774,13 +3744,13 @@
         <v>38602</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="P22" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="Q22" s="7" t="s">
         <v>158</v>
-      </c>
-      <c r="P22" s="7" t="s">
-        <v>159</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>160</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3795,13 +3765,13 @@
         <v>32939</v>
       </c>
       <c r="E23" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="G23" s="7" t="s">
         <v>161</v>
-      </c>
-      <c r="F23" s="7" t="s">
-        <v>162</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>163</v>
       </c>
       <c r="H23" s="7">
         <v>19</v>
@@ -3810,13 +3780,13 @@
         <v>20729</v>
       </c>
       <c r="J23" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="K23" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="L23" s="7" t="s">
         <v>164</v>
-      </c>
-      <c r="K23" s="7" t="s">
-        <v>165</v>
-      </c>
-      <c r="L23" s="7" t="s">
-        <v>166</v>
       </c>
       <c r="M23" s="7">
         <v>48</v>
@@ -3825,13 +3795,13 @@
         <v>53668</v>
       </c>
       <c r="O23" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="P23" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="Q23" s="7" t="s">
         <v>167</v>
-      </c>
-      <c r="P23" s="7" t="s">
-        <v>168</v>
-      </c>
-      <c r="Q23" s="7" t="s">
-        <v>169</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -3846,13 +3816,13 @@
         <v>108449</v>
       </c>
       <c r="E24" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="G24" s="7" t="s">
         <v>170</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>171</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>172</v>
       </c>
       <c r="H24" s="7">
         <v>56</v>
@@ -3861,13 +3831,13 @@
         <v>62646</v>
       </c>
       <c r="J24" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="K24" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="L24" s="7" t="s">
         <v>173</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>174</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>175</v>
       </c>
       <c r="M24" s="7">
         <v>153</v>
@@ -3876,13 +3846,13 @@
         <v>171094</v>
       </c>
       <c r="O24" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="P24" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="Q24" s="7" t="s">
         <v>176</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>177</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>178</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -3897,13 +3867,13 @@
         <v>78777</v>
       </c>
       <c r="E25" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="G25" s="7" t="s">
         <v>179</v>
-      </c>
-      <c r="F25" s="7" t="s">
-        <v>180</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>16</v>
       </c>
       <c r="H25" s="7">
         <v>39</v>
@@ -3912,10 +3882,10 @@
         <v>44957</v>
       </c>
       <c r="J25" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="K25" s="7" t="s">
         <v>181</v>
-      </c>
-      <c r="K25" s="7" t="s">
-        <v>149</v>
       </c>
       <c r="L25" s="7" t="s">
         <v>182</v>
@@ -4070,10 +4040,10 @@
         <v>199</v>
       </c>
       <c r="K28" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="L28" s="7" t="s">
         <v>200</v>
-      </c>
-      <c r="L28" s="7" t="s">
-        <v>201</v>
       </c>
       <c r="M28" s="7">
         <v>82</v>
@@ -4082,13 +4052,13 @@
         <v>86299</v>
       </c>
       <c r="O28" s="7" t="s">
+        <v>201</v>
+      </c>
+      <c r="P28" s="7" t="s">
         <v>202</v>
       </c>
-      <c r="P28" s="7" t="s">
+      <c r="Q28" s="7" t="s">
         <v>203</v>
-      </c>
-      <c r="Q28" s="7" t="s">
-        <v>204</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -4103,13 +4073,13 @@
         <v>46090</v>
       </c>
       <c r="E29" s="7" t="s">
+        <v>204</v>
+      </c>
+      <c r="F29" s="7" t="s">
         <v>205</v>
       </c>
-      <c r="F29" s="7" t="s">
+      <c r="G29" s="7" t="s">
         <v>206</v>
-      </c>
-      <c r="G29" s="7" t="s">
-        <v>207</v>
       </c>
       <c r="H29" s="7">
         <v>31</v>
@@ -4118,10 +4088,10 @@
         <v>32228</v>
       </c>
       <c r="J29" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="K29" s="7" t="s">
         <v>208</v>
-      </c>
-      <c r="K29" s="7" t="s">
-        <v>168</v>
       </c>
       <c r="L29" s="7" t="s">
         <v>209</v>
@@ -4277,7 +4247,7 @@
         <v>235</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>193</v>
+        <v>236</v>
       </c>
       <c r="M32" s="7">
         <v>123</v>
@@ -4286,13 +4256,13 @@
         <v>125565</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>237</v>
+        <v>198</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>233</v>
+        <v>238</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -4360,13 +4330,13 @@
         <v>126379</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="H34" s="7">
         <v>103</v>
@@ -4375,13 +4345,13 @@
         <v>114595</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>121</v>
+        <v>243</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="M34" s="7">
         <v>219</v>
@@ -4390,13 +4360,13 @@
         <v>240974</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -4411,13 +4381,13 @@
         <v>152166</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="H35" s="7">
         <v>100</v>
@@ -4426,13 +4396,13 @@
         <v>106567</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>251</v>
+        <v>212</v>
       </c>
       <c r="M35" s="7">
         <v>239</v>
@@ -4441,13 +4411,13 @@
         <v>258733</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -4462,13 +4432,13 @@
         <v>537014</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="H36" s="7">
         <v>301</v>
@@ -4477,13 +4447,13 @@
         <v>325493</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>255</v>
+        <v>261</v>
       </c>
       <c r="M36" s="7">
         <v>808</v>
@@ -4492,13 +4462,13 @@
         <v>862506</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -4513,13 +4483,13 @@
         <v>339361</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="H37" s="7">
         <v>190</v>
@@ -4528,13 +4498,13 @@
         <v>207347</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>268</v>
+        <v>138</v>
       </c>
       <c r="M37" s="7">
         <v>509</v>
@@ -4543,13 +4513,13 @@
         <v>546709</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -4564,13 +4534,13 @@
         <v>265785</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="H38" s="7">
         <v>182</v>
@@ -4579,13 +4549,13 @@
         <v>194678</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>277</v>
+        <v>135</v>
       </c>
       <c r="M38" s="7">
         <v>435</v>
@@ -4677,7 +4647,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DEDD82A7-208B-4708-922B-F02A962A0593}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{14E7F5A7-59C1-4735-B5F6-B05BCD147A77}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4867,13 +4837,13 @@
         <v>2664</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>244</v>
+        <v>295</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="M5" s="7">
         <v>6</v>
@@ -4882,13 +4852,13 @@
         <v>5793</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4903,13 +4873,13 @@
         <v>13897</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="H6" s="7">
         <v>11</v>
@@ -4918,13 +4888,13 @@
         <v>11466</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="M6" s="7">
         <v>25</v>
@@ -4933,13 +4903,13 @@
         <v>25363</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -4954,13 +4924,13 @@
         <v>17109</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="H7" s="7">
         <v>11</v>
@@ -4969,13 +4939,13 @@
         <v>9512</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>65</v>
+        <v>313</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="M7" s="7">
         <v>28</v>
@@ -4984,13 +4954,13 @@
         <v>26622</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5005,13 +4975,13 @@
         <v>5692</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>87</v>
+        <v>320</v>
       </c>
       <c r="H8" s="7">
         <v>2</v>
@@ -5020,13 +4990,13 @@
         <v>1709</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>318</v>
+        <v>321</v>
       </c>
       <c r="K8" s="7" t="s">
         <v>15</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>104</v>
+        <v>322</v>
       </c>
       <c r="M8" s="7">
         <v>7</v>
@@ -5035,13 +5005,13 @@
         <v>7401</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>319</v>
+        <v>323</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>321</v>
+        <v>325</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5109,13 +5079,13 @@
         <v>17769</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>322</v>
+        <v>326</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>323</v>
+        <v>327</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>324</v>
+        <v>328</v>
       </c>
       <c r="H10" s="7">
         <v>18</v>
@@ -5124,13 +5094,13 @@
         <v>17485</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>325</v>
+        <v>329</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>326</v>
+        <v>330</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>327</v>
+        <v>13</v>
       </c>
       <c r="M10" s="7">
         <v>34</v>
@@ -5139,13 +5109,13 @@
         <v>35254</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>328</v>
+        <v>331</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>329</v>
+        <v>332</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>330</v>
+        <v>333</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5160,13 +5130,13 @@
         <v>28215</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>331</v>
+        <v>334</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>332</v>
+        <v>335</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>333</v>
+        <v>336</v>
       </c>
       <c r="H11" s="7">
         <v>24</v>
@@ -5175,13 +5145,13 @@
         <v>22602</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>334</v>
+        <v>337</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>335</v>
+        <v>338</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>269</v>
+        <v>339</v>
       </c>
       <c r="M11" s="7">
         <v>51</v>
@@ -5190,13 +5160,13 @@
         <v>50816</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>336</v>
+        <v>340</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>337</v>
+        <v>113</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>338</v>
+        <v>341</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5211,13 +5181,13 @@
         <v>84756</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>339</v>
+        <v>342</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>340</v>
+        <v>343</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>341</v>
+        <v>344</v>
       </c>
       <c r="H12" s="7">
         <v>52</v>
@@ -5226,13 +5196,13 @@
         <v>49375</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>342</v>
+        <v>345</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>343</v>
+        <v>346</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>344</v>
+        <v>347</v>
       </c>
       <c r="M12" s="7">
         <v>131</v>
@@ -5244,10 +5214,10 @@
         <v>219</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>345</v>
+        <v>348</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>346</v>
+        <v>349</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -5262,13 +5232,13 @@
         <v>49269</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>347</v>
+        <v>350</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>348</v>
+        <v>294</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="H13" s="7">
         <v>36</v>
@@ -5277,13 +5247,13 @@
         <v>35633</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="M13" s="7">
         <v>83</v>
@@ -5292,13 +5262,13 @@
         <v>84902</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5313,13 +5283,13 @@
         <v>19260</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="H14" s="7">
         <v>12</v>
@@ -5328,13 +5298,13 @@
         <v>12383</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="M14" s="7">
         <v>31</v>
@@ -5343,10 +5313,10 @@
         <v>31643</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>361</v>
+        <v>101</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>362</v>
+        <v>290</v>
       </c>
       <c r="Q14" s="7" t="s">
         <v>363</v>
@@ -5405,7 +5375,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -5450,10 +5420,10 @@
         <v>370</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>158</v>
+        <v>371</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5468,13 +5438,13 @@
         <v>53560</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>363</v>
+        <v>373</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="H17" s="7">
         <v>38</v>
@@ -5483,13 +5453,13 @@
         <v>39415</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>376</v>
+      </c>
+      <c r="K17" s="7" t="s">
         <v>374</v>
       </c>
-      <c r="K17" s="7" t="s">
-        <v>375</v>
-      </c>
       <c r="L17" s="7" t="s">
-        <v>351</v>
+        <v>377</v>
       </c>
       <c r="M17" s="7">
         <v>87</v>
@@ -5498,13 +5468,13 @@
         <v>92975</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5519,13 +5489,13 @@
         <v>145612</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="H18" s="7">
         <v>104</v>
@@ -5534,13 +5504,13 @@
         <v>105855</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>382</v>
+        <v>384</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>383</v>
+        <v>385</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="M18" s="7">
         <v>237</v>
@@ -5549,13 +5519,13 @@
         <v>251468</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>385</v>
+        <v>191</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -5570,13 +5540,13 @@
         <v>120013</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="H19" s="7">
         <v>50</v>
@@ -5585,13 +5555,13 @@
         <v>51416</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>267</v>
+        <v>392</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>391</v>
+        <v>393</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>392</v>
+        <v>265</v>
       </c>
       <c r="M19" s="7">
         <v>159</v>
@@ -5600,13 +5570,13 @@
         <v>171428</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5621,13 +5591,13 @@
         <v>61867</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>360</v>
+        <v>397</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>396</v>
+        <v>398</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>397</v>
+        <v>399</v>
       </c>
       <c r="H20" s="7">
         <v>44</v>
@@ -5636,13 +5606,13 @@
         <v>46504</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>398</v>
+        <v>400</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>400</v>
+        <v>32</v>
       </c>
       <c r="M20" s="7">
         <v>97</v>
@@ -5651,13 +5621,13 @@
         <v>108371</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>267</v>
+        <v>341</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5713,7 +5683,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -5725,13 +5695,13 @@
         <v>17598</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="H22" s="7">
         <v>14</v>
@@ -5740,13 +5710,13 @@
         <v>14291</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>408</v>
+        <v>17</v>
       </c>
       <c r="M22" s="7">
         <v>30</v>
@@ -5782,7 +5752,7 @@
         <v>413</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>112</v>
+        <v>414</v>
       </c>
       <c r="H23" s="7">
         <v>23</v>
@@ -5791,13 +5761,13 @@
         <v>22961</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="M23" s="7">
         <v>48</v>
@@ -5806,13 +5776,13 @@
         <v>50420</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>417</v>
+        <v>406</v>
       </c>
       <c r="P23" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="Q23" s="7" t="s">
         <v>418</v>
-      </c>
-      <c r="Q23" s="7" t="s">
-        <v>419</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -5827,13 +5797,13 @@
         <v>107877</v>
       </c>
       <c r="E24" s="7" t="s">
+        <v>419</v>
+      </c>
+      <c r="F24" s="7" t="s">
         <v>420</v>
       </c>
-      <c r="F24" s="7" t="s">
+      <c r="G24" s="7" t="s">
         <v>421</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>422</v>
       </c>
       <c r="H24" s="7">
         <v>100</v>
@@ -5842,13 +5812,13 @@
         <v>101472</v>
       </c>
       <c r="J24" s="7" t="s">
+        <v>422</v>
+      </c>
+      <c r="K24" s="7" t="s">
         <v>423</v>
       </c>
-      <c r="K24" s="7" t="s">
+      <c r="L24" s="7" t="s">
         <v>424</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>425</v>
       </c>
       <c r="M24" s="7">
         <v>198</v>
@@ -5857,13 +5827,13 @@
         <v>209350</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>427</v>
+        <v>171</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>428</v>
+        <v>34</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -5878,13 +5848,13 @@
         <v>122556</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
       <c r="H25" s="7">
         <v>67</v>
@@ -5893,13 +5863,13 @@
         <v>69262</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="M25" s="7">
         <v>178</v>
@@ -5908,13 +5878,13 @@
         <v>191818</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>435</v>
+        <v>432</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>436</v>
+        <v>433</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>437</v>
+        <v>434</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -5929,13 +5899,13 @@
         <v>88330</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>438</v>
+        <v>435</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>440</v>
+        <v>437</v>
       </c>
       <c r="H26" s="7">
         <v>61</v>
@@ -5944,13 +5914,13 @@
         <v>62572</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>441</v>
+        <v>230</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>321</v>
+        <v>438</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
       <c r="M26" s="7">
         <v>138</v>
@@ -5959,13 +5929,13 @@
         <v>150902</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>443</v>
+        <v>440</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>444</v>
+        <v>441</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -6033,13 +6003,13 @@
         <v>24179</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>446</v>
+        <v>22</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>447</v>
+        <v>443</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>448</v>
+        <v>444</v>
       </c>
       <c r="H28" s="7">
         <v>18</v>
@@ -6048,13 +6018,13 @@
         <v>19292</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>449</v>
+        <v>445</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>450</v>
+        <v>446</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>247</v>
+        <v>447</v>
       </c>
       <c r="M28" s="7">
         <v>41</v>
@@ -6063,13 +6033,13 @@
         <v>43471</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>451</v>
+        <v>57</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>452</v>
+        <v>448</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>453</v>
+        <v>449</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -6084,13 +6054,13 @@
         <v>56773</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>454</v>
+        <v>450</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>455</v>
+        <v>253</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>456</v>
+        <v>451</v>
       </c>
       <c r="H29" s="7">
         <v>44</v>
@@ -6099,13 +6069,13 @@
         <v>47485</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>457</v>
+        <v>452</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>458</v>
+        <v>454</v>
       </c>
       <c r="M29" s="7">
         <v>100</v>
@@ -6114,13 +6084,13 @@
         <v>104258</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>235</v>
+        <v>244</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>459</v>
+        <v>455</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>460</v>
+        <v>48</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -6135,13 +6105,13 @@
         <v>152912</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>461</v>
+        <v>456</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>462</v>
+        <v>457</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>463</v>
+        <v>458</v>
       </c>
       <c r="H30" s="7">
         <v>120</v>
@@ -6150,13 +6120,13 @@
         <v>125074</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>464</v>
+        <v>459</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>465</v>
+        <v>460</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>466</v>
+        <v>461</v>
       </c>
       <c r="M30" s="7">
         <v>269</v>
@@ -6165,13 +6135,13 @@
         <v>277985</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>467</v>
+        <v>462</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>468</v>
+        <v>463</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>469</v>
+        <v>464</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -6186,13 +6156,13 @@
         <v>86554</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>470</v>
+        <v>465</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>471</v>
+        <v>466</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>472</v>
+        <v>467</v>
       </c>
       <c r="H31" s="7">
         <v>67</v>
@@ -6201,13 +6171,13 @@
         <v>71210</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>473</v>
+        <v>468</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>474</v>
+        <v>66</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>475</v>
+        <v>469</v>
       </c>
       <c r="M31" s="7">
         <v>156</v>
@@ -6216,13 +6186,13 @@
         <v>157764</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>476</v>
+        <v>470</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>477</v>
+        <v>471</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>478</v>
+        <v>472</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -6237,13 +6207,13 @@
         <v>80753</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>479</v>
+        <v>473</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>480</v>
+        <v>474</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>481</v>
+        <v>475</v>
       </c>
       <c r="H32" s="7">
         <v>58</v>
@@ -6252,13 +6222,13 @@
         <v>62414</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>458</v>
+        <v>476</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>146</v>
+        <v>477</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>482</v>
+        <v>440</v>
       </c>
       <c r="M32" s="7">
         <v>134</v>
@@ -6267,13 +6237,13 @@
         <v>143167</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>483</v>
+        <v>478</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>484</v>
+        <v>479</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>485</v>
+        <v>480</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -6341,13 +6311,13 @@
         <v>96729</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>486</v>
+        <v>481</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>487</v>
+        <v>327</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>488</v>
+        <v>482</v>
       </c>
       <c r="H34" s="7">
         <v>86</v>
@@ -6356,13 +6326,13 @@
         <v>86188</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>489</v>
+        <v>483</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>490</v>
+        <v>484</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>491</v>
+        <v>485</v>
       </c>
       <c r="M34" s="7">
         <v>173</v>
@@ -6371,13 +6341,13 @@
         <v>182917</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>492</v>
+        <v>486</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>493</v>
+        <v>487</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>414</v>
+        <v>488</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -6392,13 +6362,13 @@
         <v>169136</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>494</v>
+        <v>489</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>495</v>
+        <v>490</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>496</v>
+        <v>491</v>
       </c>
       <c r="H35" s="7">
         <v>132</v>
@@ -6407,13 +6377,13 @@
         <v>135127</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>497</v>
+        <v>492</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>112</v>
+        <v>493</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>498</v>
+        <v>494</v>
       </c>
       <c r="M35" s="7">
         <v>292</v>
@@ -6422,13 +6392,13 @@
         <v>304263</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>499</v>
+        <v>495</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>377</v>
+        <v>366</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>500</v>
+        <v>496</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -6443,13 +6413,13 @@
         <v>505054</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>501</v>
+        <v>497</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>502</v>
+        <v>498</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>503</v>
+        <v>499</v>
       </c>
       <c r="H36" s="7">
         <v>387</v>
@@ -6458,13 +6428,13 @@
         <v>393243</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>504</v>
+        <v>500</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>505</v>
+        <v>501</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>506</v>
+        <v>502</v>
       </c>
       <c r="M36" s="7">
         <v>860</v>
@@ -6473,13 +6443,13 @@
         <v>898297</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>507</v>
+        <v>503</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>508</v>
+        <v>504</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>509</v>
+        <v>505</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -6494,13 +6464,13 @@
         <v>395501</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>510</v>
+        <v>506</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>511</v>
+        <v>507</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>435</v>
+        <v>508</v>
       </c>
       <c r="H37" s="7">
         <v>231</v>
@@ -6509,13 +6479,13 @@
         <v>237032</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>512</v>
+        <v>509</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>513</v>
+        <v>75</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>93</v>
+        <v>510</v>
       </c>
       <c r="M37" s="7">
         <v>604</v>
@@ -6524,13 +6494,13 @@
         <v>632534</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>514</v>
+        <v>511</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>515</v>
+        <v>265</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>516</v>
+        <v>512</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -6545,13 +6515,13 @@
         <v>255902</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>517</v>
+        <v>466</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>518</v>
+        <v>513</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>519</v>
+        <v>514</v>
       </c>
       <c r="H38" s="7">
         <v>177</v>
@@ -6560,13 +6530,13 @@
         <v>185582</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>520</v>
+        <v>515</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>166</v>
+        <v>148</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>521</v>
+        <v>430</v>
       </c>
       <c r="M38" s="7">
         <v>407</v>
@@ -6575,13 +6545,13 @@
         <v>441484</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>522</v>
+        <v>516</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>231</v>
+        <v>517</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>523</v>
+        <v>518</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -6658,7 +6628,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00067A9E-87C3-49D2-84B7-D27AA1BBF419}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{386239CA-5603-4906-A55E-B4C586B91EAC}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6675,7 +6645,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>524</v>
+        <v>519</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -6782,13 +6752,13 @@
         <v>4941</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>194</v>
+        <v>520</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>489</v>
+        <v>521</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>525</v>
+        <v>522</v>
       </c>
       <c r="H4" s="7">
         <v>4</v>
@@ -6797,13 +6767,13 @@
         <v>2309</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>526</v>
+        <v>523</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>527</v>
+        <v>524</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>528</v>
+        <v>525</v>
       </c>
       <c r="M4" s="7">
         <v>8</v>
@@ -6812,13 +6782,13 @@
         <v>7250</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>529</v>
+        <v>526</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>530</v>
+        <v>527</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>531</v>
+        <v>528</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -6833,13 +6803,13 @@
         <v>1263</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>532</v>
+        <v>529</v>
       </c>
       <c r="F5" s="7" t="s">
         <v>15</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>533</v>
+        <v>530</v>
       </c>
       <c r="H5" s="7">
         <v>2</v>
@@ -6848,13 +6818,13 @@
         <v>703</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>534</v>
+        <v>531</v>
       </c>
       <c r="K5" s="7" t="s">
         <v>15</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>535</v>
+        <v>532</v>
       </c>
       <c r="M5" s="7">
         <v>3</v>
@@ -6863,13 +6833,13 @@
         <v>1966</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>536</v>
+        <v>533</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>537</v>
+        <v>534</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>538</v>
+        <v>512</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -6884,13 +6854,13 @@
         <v>5659</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>539</v>
+        <v>535</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>540</v>
+        <v>536</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>541</v>
+        <v>537</v>
       </c>
       <c r="H6" s="7">
         <v>5</v>
@@ -6899,13 +6869,13 @@
         <v>3811</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>542</v>
+        <v>538</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>543</v>
+        <v>539</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>544</v>
+        <v>540</v>
       </c>
       <c r="M6" s="7">
         <v>10</v>
@@ -6914,13 +6884,13 @@
         <v>9470</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>545</v>
+        <v>541</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>546</v>
+        <v>542</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>547</v>
+        <v>543</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -6935,13 +6905,13 @@
         <v>2608</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>548</v>
+        <v>544</v>
       </c>
       <c r="F7" s="7" t="s">
         <v>15</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>549</v>
+        <v>545</v>
       </c>
       <c r="H7" s="7">
         <v>1</v>
@@ -6950,13 +6920,13 @@
         <v>805</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>550</v>
+        <v>546</v>
       </c>
       <c r="K7" s="7" t="s">
         <v>15</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>551</v>
+        <v>547</v>
       </c>
       <c r="M7" s="7">
         <v>3</v>
@@ -6965,13 +6935,13 @@
         <v>3413</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>235</v>
+        <v>244</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>552</v>
+        <v>548</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>553</v>
+        <v>261</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -6986,13 +6956,13 @@
         <v>913</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>449</v>
+        <v>445</v>
       </c>
       <c r="F8" s="7" t="s">
         <v>15</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>554</v>
+        <v>549</v>
       </c>
       <c r="H8" s="7">
         <v>1</v>
@@ -7001,13 +6971,13 @@
         <v>776</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>555</v>
+        <v>550</v>
       </c>
       <c r="K8" s="7" t="s">
         <v>15</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>556</v>
+        <v>551</v>
       </c>
       <c r="M8" s="7">
         <v>2</v>
@@ -7016,13 +6986,13 @@
         <v>1689</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>162</v>
+        <v>552</v>
       </c>
       <c r="P8" s="7" t="s">
         <v>15</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>557</v>
+        <v>553</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -7090,13 +7060,13 @@
         <v>11609</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>558</v>
+        <v>554</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>559</v>
+        <v>555</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>560</v>
+        <v>556</v>
       </c>
       <c r="H10" s="7">
         <v>11</v>
@@ -7105,13 +7075,13 @@
         <v>8056</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>561</v>
+        <v>557</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>562</v>
+        <v>558</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>563</v>
+        <v>559</v>
       </c>
       <c r="M10" s="7">
         <v>20</v>
@@ -7120,13 +7090,13 @@
         <v>19665</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>564</v>
+        <v>560</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>565</v>
+        <v>561</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>566</v>
+        <v>562</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -7141,13 +7111,13 @@
         <v>7378</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>567</v>
+        <v>563</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>568</v>
+        <v>564</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>569</v>
+        <v>565</v>
       </c>
       <c r="H11" s="7">
         <v>12</v>
@@ -7156,13 +7126,13 @@
         <v>7941</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>570</v>
+        <v>255</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>362</v>
+        <v>566</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>571</v>
+        <v>567</v>
       </c>
       <c r="M11" s="7">
         <v>20</v>
@@ -7171,13 +7141,13 @@
         <v>15319</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>572</v>
+        <v>568</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>573</v>
+        <v>569</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>574</v>
+        <v>570</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -7192,13 +7162,13 @@
         <v>23578</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>575</v>
+        <v>571</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>576</v>
+        <v>572</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>577</v>
+        <v>573</v>
       </c>
       <c r="H12" s="7">
         <v>37</v>
@@ -7207,13 +7177,13 @@
         <v>22709</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>578</v>
+        <v>574</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>579</v>
+        <v>575</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>580</v>
+        <v>576</v>
       </c>
       <c r="M12" s="7">
         <v>62</v>
@@ -7222,13 +7192,13 @@
         <v>46287</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>581</v>
+        <v>577</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>582</v>
+        <v>578</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>583</v>
+        <v>579</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -7243,13 +7213,13 @@
         <v>19427</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>584</v>
+        <v>580</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>585</v>
+        <v>581</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>586</v>
+        <v>582</v>
       </c>
       <c r="H13" s="7">
         <v>20</v>
@@ -7258,13 +7228,13 @@
         <v>17435</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>587</v>
+        <v>583</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>588</v>
+        <v>277</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>589</v>
+        <v>584</v>
       </c>
       <c r="M13" s="7">
         <v>33</v>
@@ -7273,13 +7243,13 @@
         <v>36862</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>590</v>
+        <v>585</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>591</v>
+        <v>586</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>592</v>
+        <v>262</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -7294,13 +7264,13 @@
         <v>12553</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>593</v>
+        <v>587</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>594</v>
+        <v>588</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>595</v>
+        <v>589</v>
       </c>
       <c r="H14" s="7">
         <v>12</v>
@@ -7309,13 +7279,13 @@
         <v>9207</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>596</v>
+        <v>590</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>432</v>
+        <v>591</v>
       </c>
       <c r="M14" s="7">
         <v>20</v>
@@ -7324,13 +7294,13 @@
         <v>21760</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>597</v>
+        <v>592</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>250</v>
+        <v>593</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>598</v>
+        <v>88</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -7386,7 +7356,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -7398,13 +7368,13 @@
         <v>67939</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>599</v>
+        <v>594</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>61</v>
+        <v>482</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>600</v>
+        <v>595</v>
       </c>
       <c r="H16" s="7">
         <v>20</v>
@@ -7413,13 +7383,13 @@
         <v>16037</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>601</v>
+        <v>123</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>602</v>
+        <v>596</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>603</v>
+        <v>597</v>
       </c>
       <c r="M16" s="7">
         <v>36</v>
@@ -7428,13 +7398,13 @@
         <v>83976</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>604</v>
+        <v>598</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>605</v>
+        <v>599</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>606</v>
+        <v>600</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -7449,13 +7419,13 @@
         <v>19724</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>607</v>
+        <v>601</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>608</v>
+        <v>602</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>609</v>
+        <v>181</v>
       </c>
       <c r="H17" s="7">
         <v>16</v>
@@ -7464,13 +7434,13 @@
         <v>12713</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>610</v>
+        <v>603</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>52</v>
+        <v>604</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>611</v>
+        <v>605</v>
       </c>
       <c r="M17" s="7">
         <v>32</v>
@@ -7479,13 +7449,13 @@
         <v>32437</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>612</v>
+        <v>606</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>290</v>
+        <v>607</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>613</v>
+        <v>608</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -7500,13 +7470,13 @@
         <v>66202</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>614</v>
+        <v>217</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>615</v>
+        <v>609</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>616</v>
+        <v>610</v>
       </c>
       <c r="H18" s="7">
         <v>54</v>
@@ -7515,13 +7485,13 @@
         <v>39878</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>617</v>
+        <v>611</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>618</v>
+        <v>53</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>619</v>
+        <v>612</v>
       </c>
       <c r="M18" s="7">
         <v>115</v>
@@ -7530,13 +7500,13 @@
         <v>106080</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>620</v>
+        <v>613</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>621</v>
+        <v>614</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>619</v>
+        <v>615</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -7551,13 +7521,13 @@
         <v>38674</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>622</v>
+        <v>616</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>623</v>
+        <v>617</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>624</v>
+        <v>618</v>
       </c>
       <c r="H19" s="7">
         <v>44</v>
@@ -7566,13 +7536,13 @@
         <v>32234</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>625</v>
+        <v>619</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>626</v>
+        <v>620</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>627</v>
+        <v>621</v>
       </c>
       <c r="M19" s="7">
         <v>78</v>
@@ -7581,13 +7551,13 @@
         <v>70908</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>628</v>
+        <v>622</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>629</v>
+        <v>623</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>630</v>
+        <v>469</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -7602,13 +7572,13 @@
         <v>20253</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>631</v>
+        <v>593</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>320</v>
+        <v>624</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>632</v>
+        <v>625</v>
       </c>
       <c r="H20" s="7">
         <v>33</v>
@@ -7617,13 +7587,13 @@
         <v>28257</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>473</v>
+        <v>468</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>633</v>
+        <v>626</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>634</v>
+        <v>627</v>
       </c>
       <c r="M20" s="7">
         <v>48</v>
@@ -7632,13 +7602,13 @@
         <v>48511</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>635</v>
+        <v>527</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>100</v>
+        <v>628</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>636</v>
+        <v>629</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -7694,7 +7664,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -7709,10 +7679,10 @@
         <v>27</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>637</v>
+        <v>54</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>638</v>
+        <v>630</v>
       </c>
       <c r="H22" s="7">
         <v>13</v>
@@ -7721,13 +7691,13 @@
         <v>10215</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>639</v>
+        <v>631</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>640</v>
+        <v>65</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>641</v>
+        <v>632</v>
       </c>
       <c r="M22" s="7">
         <v>24</v>
@@ -7736,13 +7706,13 @@
         <v>24505</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>642</v>
+        <v>633</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>643</v>
+        <v>111</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>644</v>
+        <v>634</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -7757,13 +7727,13 @@
         <v>13160</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>645</v>
+        <v>635</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>646</v>
+        <v>636</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>647</v>
+        <v>637</v>
       </c>
       <c r="H23" s="7">
         <v>11</v>
@@ -7772,13 +7742,13 @@
         <v>11167</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>648</v>
+        <v>638</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>649</v>
+        <v>639</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>650</v>
+        <v>640</v>
       </c>
       <c r="M23" s="7">
         <v>21</v>
@@ -7787,13 +7757,13 @@
         <v>24327</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>651</v>
+        <v>641</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>652</v>
+        <v>54</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>653</v>
+        <v>642</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -7808,13 +7778,13 @@
         <v>26103</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>654</v>
+        <v>643</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>655</v>
+        <v>644</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>656</v>
+        <v>645</v>
       </c>
       <c r="H24" s="7">
         <v>35</v>
@@ -7823,13 +7793,13 @@
         <v>26594</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>657</v>
+        <v>646</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>658</v>
+        <v>647</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>659</v>
+        <v>648</v>
       </c>
       <c r="M24" s="7">
         <v>61</v>
@@ -7838,13 +7808,13 @@
         <v>52696</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>660</v>
+        <v>649</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>90</v>
+        <v>650</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>503</v>
+        <v>651</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -7859,13 +7829,13 @@
         <v>21258</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>661</v>
+        <v>652</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>662</v>
+        <v>653</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>663</v>
+        <v>654</v>
       </c>
       <c r="H25" s="7">
         <v>36</v>
@@ -7874,13 +7844,13 @@
         <v>28197</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>664</v>
+        <v>655</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>665</v>
+        <v>656</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>666</v>
+        <v>657</v>
       </c>
       <c r="M25" s="7">
         <v>54</v>
@@ -7889,13 +7859,13 @@
         <v>49456</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>667</v>
+        <v>470</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>668</v>
+        <v>658</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -7910,13 +7880,13 @@
         <v>6294</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>368</v>
+        <v>659</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>669</v>
+        <v>660</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>670</v>
+        <v>661</v>
       </c>
       <c r="H26" s="7">
         <v>15</v>
@@ -7925,13 +7895,13 @@
         <v>13323</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>671</v>
+        <v>662</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>414</v>
+        <v>663</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>672</v>
+        <v>236</v>
       </c>
       <c r="M26" s="7">
         <v>20</v>
@@ -7940,13 +7910,13 @@
         <v>19617</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>673</v>
+        <v>247</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>492</v>
+        <v>664</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>674</v>
+        <v>665</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -8014,13 +7984,13 @@
         <v>30780</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>675</v>
+        <v>666</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>676</v>
+        <v>667</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>677</v>
+        <v>668</v>
       </c>
       <c r="H28" s="7">
         <v>27</v>
@@ -8029,13 +7999,13 @@
         <v>20577</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>678</v>
+        <v>669</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>679</v>
+        <v>333</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>680</v>
+        <v>670</v>
       </c>
       <c r="M28" s="7">
         <v>56</v>
@@ -8044,13 +8014,13 @@
         <v>51358</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>681</v>
+        <v>671</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>682</v>
+        <v>672</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>683</v>
+        <v>673</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -8065,13 +8035,13 @@
         <v>7428</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>684</v>
+        <v>674</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>685</v>
+        <v>675</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>117</v>
+        <v>676</v>
       </c>
       <c r="H29" s="7">
         <v>19</v>
@@ -8080,13 +8050,13 @@
         <v>14494</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>686</v>
+        <v>494</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>687</v>
+        <v>677</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>688</v>
+        <v>678</v>
       </c>
       <c r="M29" s="7">
         <v>26</v>
@@ -8095,13 +8065,13 @@
         <v>21923</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>689</v>
+        <v>679</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>690</v>
+        <v>680</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>691</v>
+        <v>681</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -8116,13 +8086,13 @@
         <v>31561</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>692</v>
+        <v>682</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>693</v>
+        <v>542</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>694</v>
+        <v>683</v>
       </c>
       <c r="H30" s="7">
         <v>43</v>
@@ -8131,13 +8101,13 @@
         <v>28648</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>695</v>
+        <v>684</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>696</v>
+        <v>685</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>697</v>
+        <v>686</v>
       </c>
       <c r="M30" s="7">
         <v>74</v>
@@ -8146,13 +8116,13 @@
         <v>60208</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>698</v>
+        <v>687</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>699</v>
+        <v>688</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>700</v>
+        <v>689</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -8167,13 +8137,13 @@
         <v>28999</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>511</v>
+        <v>316</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>701</v>
+        <v>279</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>702</v>
+        <v>690</v>
       </c>
       <c r="H31" s="7">
         <v>22</v>
@@ -8182,13 +8152,13 @@
         <v>16865</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>703</v>
+        <v>691</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>704</v>
+        <v>366</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>133</v>
+        <v>692</v>
       </c>
       <c r="M31" s="7">
         <v>50</v>
@@ -8197,13 +8167,13 @@
         <v>45864</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>705</v>
+        <v>693</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>334</v>
+        <v>694</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>706</v>
+        <v>695</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -8218,13 +8188,13 @@
         <v>14316</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>707</v>
+        <v>696</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>708</v>
+        <v>697</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>275</v>
+        <v>356</v>
       </c>
       <c r="H32" s="7">
         <v>18</v>
@@ -8233,13 +8203,13 @@
         <v>15024</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>709</v>
+        <v>698</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>710</v>
+        <v>699</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>711</v>
+        <v>700</v>
       </c>
       <c r="M32" s="7">
         <v>31</v>
@@ -8248,13 +8218,13 @@
         <v>29340</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>564</v>
+        <v>560</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>495</v>
+        <v>701</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>712</v>
+        <v>702</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -8322,13 +8292,13 @@
         <v>129560</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>713</v>
+        <v>703</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>157</v>
+        <v>704</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>714</v>
+        <v>705</v>
       </c>
       <c r="H34" s="7">
         <v>75</v>
@@ -8337,13 +8307,13 @@
         <v>57195</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>715</v>
+        <v>203</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>716</v>
+        <v>706</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>717</v>
+        <v>707</v>
       </c>
       <c r="M34" s="7">
         <v>144</v>
@@ -8352,13 +8322,13 @@
         <v>186755</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>718</v>
+        <v>275</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>719</v>
+        <v>708</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>720</v>
+        <v>348</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -8373,13 +8343,13 @@
         <v>48954</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>610</v>
+        <v>603</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>721</v>
+        <v>709</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>722</v>
+        <v>21</v>
       </c>
       <c r="H35" s="7">
         <v>60</v>
@@ -8388,13 +8358,13 @@
         <v>47018</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>723</v>
+        <v>710</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>250</v>
+        <v>711</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>724</v>
+        <v>712</v>
       </c>
       <c r="M35" s="7">
         <v>102</v>
@@ -8406,10 +8376,10 @@
         <v>64</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>725</v>
+        <v>713</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>51</v>
+        <v>714</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -8424,13 +8394,13 @@
         <v>153103</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>726</v>
+        <v>715</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>433</v>
+        <v>716</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>727</v>
+        <v>717</v>
       </c>
       <c r="H36" s="7">
         <v>174</v>
@@ -8439,13 +8409,13 @@
         <v>121639</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>135</v>
+        <v>718</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>728</v>
+        <v>719</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>729</v>
+        <v>720</v>
       </c>
       <c r="M36" s="7">
         <v>322</v>
@@ -8454,13 +8424,13 @@
         <v>274742</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>730</v>
+        <v>16</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>731</v>
+        <v>721</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>732</v>
+        <v>722</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -8475,13 +8445,13 @@
         <v>110967</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>733</v>
+        <v>723</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>734</v>
+        <v>724</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>735</v>
+        <v>725</v>
       </c>
       <c r="H37" s="7">
         <v>123</v>
@@ -8490,13 +8460,13 @@
         <v>95536</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>598</v>
+        <v>726</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>736</v>
+        <v>727</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>737</v>
+        <v>728</v>
       </c>
       <c r="M37" s="7">
         <v>218</v>
@@ -8505,13 +8475,13 @@
         <v>206503</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>738</v>
+        <v>729</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>739</v>
+        <v>730</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>740</v>
+        <v>731</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -8526,13 +8496,13 @@
         <v>54330</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>741</v>
+        <v>732</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>742</v>
+        <v>411</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>743</v>
+        <v>733</v>
       </c>
       <c r="H38" s="7">
         <v>79</v>
@@ -8541,13 +8511,13 @@
         <v>66587</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>744</v>
+        <v>229</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>745</v>
+        <v>734</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>746</v>
+        <v>735</v>
       </c>
       <c r="M38" s="7">
         <v>121</v>
@@ -8556,13 +8526,13 @@
         <v>120917</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>747</v>
+        <v>736</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>689</v>
+        <v>737</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>748</v>
+        <v>738</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
